--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="289">
   <si>
     <t>mzML</t>
   </si>
@@ -189,9 +189,6 @@
     <t>cl</t>
   </si>
   <si>
-    <t>Sum Br + Cl</t>
-  </si>
-  <si>
     <t>Potassium</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>Sum Br + Cl + F + I</t>
-  </si>
-  <si>
     <t>Sodium</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>PARAM0018</t>
   </si>
   <si>
-    <t>You may download the PubChem library from www.github.com/</t>
-  </si>
-  <si>
     <t>Ionization pathways to acquire molecular formulas from the library</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>Choose "Sample Mode" or "Peak Mode"</t>
   </si>
   <si>
-    <t>Constraints for number of bromine and chlorine atoms in a compound</t>
-  </si>
-  <si>
     <t>User input 1</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Mass range (Da)</t>
   </si>
   <si>
-    <t>Extended SENIOR rule</t>
-  </si>
-  <si>
     <t>Ionization pathway</t>
   </si>
   <si>
@@ -555,15 +540,9 @@
     <t>"TopRank" or "OveralRank"</t>
   </si>
   <si>
-    <t>Lower limit of score coefficients</t>
-  </si>
-  <si>
     <t>A vector of five positive numbers</t>
   </si>
   <si>
-    <t>Upper limit of score coefficients</t>
-  </si>
-  <si>
     <t>Population size</t>
   </si>
   <si>
@@ -687,12 +666,6 @@
     <t>PARAM0028</t>
   </si>
   <si>
-    <t>Address of the aligned indexed peak table (.Rdata)</t>
-  </si>
-  <si>
-    <t>Address of the aligned peak property table (.Rdata)</t>
-  </si>
-  <si>
     <t>Follow the naming rules in R</t>
   </si>
   <si>
@@ -735,6 +708,551 @@
     <t>≥ 0, Maximum space between two neighboring isotopologues</t>
   </si>
   <si>
+    <t>"YES" OR "NO"(When "YES", fill out SFT0002 and parameters from SFT0011-SFT0017)</t>
+  </si>
+  <si>
+    <r>
+      <t>Generate a new isotopic profile database (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Annotate the molecular formulas on individual peaklists</t>
+  </si>
+  <si>
+    <t>Visualize isotopic profiles</t>
+  </si>
+  <si>
+    <t>Number of parallel threads</t>
+  </si>
+  <si>
+    <t>Check the coverage in a library of molecular formula</t>
+  </si>
+  <si>
+    <t>Address of molecular formulas library (.Rdata) This library must have been produced by the 'molecular_formula_library_generator' module</t>
+  </si>
+  <si>
+    <r>
+      <t>Use a constant value or an R script using elements in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Essential elements'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
+    </r>
+  </si>
+  <si>
+    <t>Peak spacing (Da)</t>
+  </si>
+  <si>
+    <t>Use a constant value or an R script using elements in the 'Essential elements' section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
+  </si>
+  <si>
+    <t>[M+H/K/Na]</t>
+  </si>
+  <si>
+    <t>if (s&gt;0 &amp; si&gt;0) {min(c(c, 5, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 5, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 5, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}</t>
+  </si>
+  <si>
+    <t>c("[M+H]+", "[M+Na]+","[M-H2O+H]+")</t>
+  </si>
+  <si>
+    <t>Optimize the score function coefficients</t>
+  </si>
+  <si>
+    <t>Aggregate the molecular formulas for the aligned peak table</t>
+  </si>
+  <si>
+    <t>Molecular ion formula enumeration</t>
+  </si>
+  <si>
+    <t>PARAM0029</t>
+  </si>
+  <si>
+    <t>Adjust peak frequency and ranks</t>
+  </si>
+  <si>
+    <t>rep(0, 5)</t>
+  </si>
+  <si>
+    <t>rep(1, 5)</t>
+  </si>
+  <si>
+    <t>Molecular formula annotation criteria for individual peaklists</t>
+  </si>
+  <si>
+    <t>rep(10, 5)</t>
+  </si>
+  <si>
+    <t>FS0008</t>
+  </si>
+  <si>
+    <t>Isotopic profile calculations memory usage</t>
+  </si>
+  <si>
+    <t>/peaklists</t>
+  </si>
+  <si>
+    <t>/PubChem_MolecularFormula_Freq_Database.Rdata</t>
+  </si>
+  <si>
+    <t>/peak_alignment/peak_Xcol.Rdata</t>
+  </si>
+  <si>
+    <t>/peak_alignment/peak_R13C.Rdata</t>
+  </si>
+  <si>
+    <t>/IPDB_MTBLS1684.Rdata</t>
+  </si>
+  <si>
+    <t>SA0011</t>
+  </si>
+  <si>
+    <t>/.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumerate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> through enumerated chemical space (ECS) method</t>
+    </r>
+  </si>
+  <si>
+    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for SFT0007)</t>
+  </si>
+  <si>
+    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0011)</t>
+  </si>
+  <si>
+    <t>IPDB_name</t>
+  </si>
+  <si>
+    <t>/.csv</t>
+  </si>
+  <si>
+    <t>/MS1/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'score_function_optimization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'profile_visualization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'enumerated_chemical_space'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'formula_source'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You may use a peak property table from the 'peak_alignment' folder of the IDSL.IPA project such as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'peak_height_gapfilled.Rdata'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'peak_height.Rdata'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RCS (%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NDCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/number of scans within 80% of peak height)</t>
+    </r>
+  </si>
+  <si>
+    <t>Perform the genetic algorithm optimization</t>
+  </si>
+  <si>
+    <t>Evaluate the performance of the genetic algorithm optimization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It must be in *.xlsx format with the file extension. Four column headers with 'FileName', 'MolcularFormula', 'IonizationPathway', 'RetentionTime(min)' must be available in the spreadsheet. You should ensure molecular formulas in the reference file are also included in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>A vector of five positive numbers (Each array must be greater than its corresponding array in SFT0020)</t>
+  </si>
+  <si>
+    <t>A vector in a same size of variable 'SA0001' to search for molecular formulas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file with one column of targeted molecular formulas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Essential elements"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>c(1e30, 1e-12, 10)</t>
+  </si>
+  <si>
+    <t>Default values are c(1e30, 1e-12, 10). See the `UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
+  </si>
+  <si>
+    <r>
+      <t>Address of the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of top rank candidate molecular formulas on individual files</t>
+  </si>
+  <si>
+    <t>Number of the tabulated candidate molecular formulas after aggregating molecular formulas on the aligned table</t>
+  </si>
+  <si>
+    <r>
+      <t>This file is usually named '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_Xcol.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_alignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' folder of the IDSL.IPA pipeline</t>
+    </r>
+  </si>
+  <si>
+    <t>R variable name</t>
+  </si>
+  <si>
+    <t>Rule 1 (C/N chemical space rule (c/2-n-1) ≤ (h+cl+br+f+i) ≤ (2c+3n+6))</t>
+  </si>
+  <si>
+    <t>Rule 2 (Extended SENIOR rule)</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl))</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl + F + I))</t>
+  </si>
+  <si>
+    <t>Rule 4 (Maximum number of elements rule)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using </t>
     </r>
@@ -759,8 +1277,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">"TRUE" or "FALSE". The </t>
+    <t>Default = TRUE, `TRUE` or `FALSE`</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default = TRUE, `TRUE` or `FALSE`. The </t>
     </r>
     <r>
       <rPr>
@@ -779,15 +1300,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled s- and p- valence shells.</t>
-    </r>
-  </si>
-  <si>
-    <t>"YES" OR "NO"(When "YES", fill out SFT0002 and parameters from SFT0011-SFT0017)</t>
-  </si>
-  <si>
-    <r>
-      <t>Generate a new isotopic profile database (</t>
+      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- valence shells.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case 'TRUE' is selected for the </t>
     </r>
     <r>
       <rPr>
@@ -797,36 +1353,169 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Rule 2 (Extended SENIOR rule)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(na + k) &lt;= 1</t>
+  </si>
+  <si>
+    <t>Molecular formula prioritization rules</t>
+  </si>
+  <si>
+    <t>/path/to/folder/IDSL.UFA</t>
+  </si>
+  <si>
+    <t>You may download the PubChem library from https://zenodo.org/record/7065107/files/PubChem_MolecularFormula_Freq_Database.Rdata?download=1</t>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>IPDB</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is not required)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IDSL.IPA peaklists must be in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", it sorts candidate molecular formulas using the `</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sqrt(frequency)/rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>` equation, and when "NO" it sorts candidate molecular formulas relative to frequency of detections across samples)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lower limits of score coefficients</t>
+  </si>
+  <si>
+    <t>Upper limits of score coefficients</t>
+  </si>
+  <si>
+    <t>OveralRank</t>
+  </si>
+  <si>
+    <t>This rule is to constrain number of bromine and chlorine atoms in a compound. Suggested to use values between [0-8].</t>
+  </si>
+  <si>
+    <t>This rule is to constrain number of halogen atoms in a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
+  </si>
+  <si>
+    <t>IPDB_ECS</t>
+  </si>
+  <si>
+    <t>IDSL.IPA peaklists must be in .Rdata format</t>
+  </si>
+  <si>
+    <r>
+      <t>Address of the aligned indexed peak table (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Annotate the molecular formulas on individual peaklists</t>
-  </si>
-  <si>
-    <t>Visualize isotopic profiles</t>
-  </si>
-  <si>
-    <t>Number of parallel threads</t>
-  </si>
-  <si>
-    <t>Check the coverage in a library of molecular formula</t>
-  </si>
-  <si>
-    <t>Address of molecular formulas library (.Rdata) This library must have been produced by the 'molecular_formula_library_generator' module</t>
-  </si>
-  <si>
-    <r>
-      <t>Use a constant value or an R script using elements in the '</t>
+    <r>
+      <t>Address of the aligned peak property table (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default = </t>
     </r>
     <r>
       <rPr>
@@ -836,7 +1525,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Essential elements'</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -845,109 +1534,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
-    </r>
-  </si>
-  <si>
-    <t>Constraints for number of halogen atoms in a compound. This parameter also depends on the "Sum Br + Cl" parameter.</t>
-  </si>
-  <si>
-    <t>Peak spacing (Da)</t>
-  </si>
-  <si>
-    <t>Use a constant value or an R script using elements in the 'Essential elements' section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
-  </si>
-  <si>
-    <t>2*c+3*n+6</t>
-  </si>
-  <si>
-    <t>((h+cl+br+f+i) &gt;= (c/2-n-1)) &amp; ((k+na) &lt;= 1) &amp; ((((na + k) == 0) &amp; length(which(c(c, b, br, cl, k, s, se, si, n, h, as, f, i, na, o, p) &gt; 0)) &lt;= 6) | (((na + k) == 1) &amp; length(which(c(c, b, br, cl, k, s, se, si, n, h, as, f, i, na, o, p) &gt; 0)) &lt;= 7))</t>
-  </si>
-  <si>
-    <t>[M+H/K/Na]</t>
-  </si>
-  <si>
-    <t>if (s&gt;0 &amp; si&gt;0) {min(c(c, 5, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 5, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 5, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}</t>
-  </si>
-  <si>
-    <t>IPDB_MTBLS1684</t>
-  </si>
-  <si>
-    <t>c("[M+H]+", "[M+Na]+","[M-H2O+H]+")</t>
-  </si>
-  <si>
-    <t>Optimize the score function coefficients</t>
-  </si>
-  <si>
-    <t>Aggregate the molecular formulas for the aligned peak table</t>
-  </si>
-  <si>
-    <t>Molecular ion formula enumeration</t>
-  </si>
-  <si>
-    <t>PARAM0029</t>
-  </si>
-  <si>
-    <t>Adjust peak frequency and ranks</t>
-  </si>
-  <si>
-    <t>rep(0, 5)</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO" (When "YES", it sorts candidate molecular formulas using the `sqrt(frequency)/rank` equation, and when "NO" it sorts candidate molecular formulas relative to frequency of detections across samples)</t>
-  </si>
-  <si>
-    <t>rep(1, 5)</t>
-  </si>
-  <si>
-    <t>Molecular formula annotation criteria for individual peaklists</t>
-  </si>
-  <si>
-    <t>rep(10, 5)</t>
-  </si>
-  <si>
-    <t>FS0008</t>
-  </si>
-  <si>
-    <t>Isotopic profile calculations memory usage</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/peaklists</t>
-  </si>
-  <si>
-    <t>/PubChem_MolecularFormula_Freq_Database.Rdata</t>
-  </si>
-  <si>
-    <t>/peak_alignment/peak_Xcol.Rdata</t>
-  </si>
-  <si>
-    <t>/peak_alignment/peak_R13C.Rdata</t>
-  </si>
-  <si>
-    <t>/IPDB_MTBLS1684.Rdata</t>
-  </si>
-  <si>
-    <t>SA0011</t>
-  </si>
-  <si>
-    <t>/.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enumerate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">. 95% of realistic molecular formulas have ≤ 6 elements. This rule does not count </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>IPDB</t>
+      <t>Na</t>
     </r>
     <r>
       <rPr>
@@ -956,190 +1553,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> through enumerated chemical space (ECS) method</t>
-    </r>
-  </si>
-  <si>
-    <t>/IPDB_folder</t>
-  </si>
-  <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0008)</t>
-  </si>
-  <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for SFT0007)</t>
-  </si>
-  <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0011)</t>
-  </si>
-  <si>
-    <t>IPDB_name</t>
-  </si>
-  <si>
-    <t>/IPDB_folder/</t>
-  </si>
-  <si>
-    <t>/.csv</t>
-  </si>
-  <si>
-    <t>/MS1/</t>
-  </si>
-  <si>
-    <t>/path/to/folder</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not required)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'score_function_optimization'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'profile_visualization'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'enumerated_chemical_space'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'formula_source'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You may use a peak property table from the 'peak_alignment' folder of the IDSL.IPA project such as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'peak_height_gapfilled.Rdata'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'peak_height.Rdata'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minimum </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>RCS (%)</t>
+      <t>K</t>
     </r>
     <r>
       <rPr>
@@ -1148,252 +1572,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NDCS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/number of scans within 80% of peak height)</t>
-    </r>
-  </si>
-  <si>
-    <t>Perform the genetic algorithm optimization</t>
-  </si>
-  <si>
-    <t>Evaluate the performance of the genetic algorithm optimization</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It must be in *.xlsx format with the file extension. Four column headers with 'FileName', 'MolcularFormula', 'IonizationPathway', 'RetentionTime(min)' must be available in the spreadsheet. You should ensure molecular formulas in the reference file are also included in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>A vector of five positive numbers (Each array must be greater than its corresponding array in SFT0020)</t>
-  </si>
-  <si>
-    <t>A vector in a same size of variable 'SA0001' to search for molecular formulas</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> file with one column of targeted molecular formulas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Essential elements"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>c(1e30, 1e-12, 10)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case "TRUE" is selected for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>extended SENIOR rule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Default values are c(1e30, 1e-12, 10). See the `UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
-  </si>
-  <si>
-    <r>
-      <t>Address of the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of top rank candidate molecular formulas on individual files</t>
-  </si>
-  <si>
-    <t>Number of the tabulated candidate molecular formulas after aggregating molecular formulas on the aligned table</t>
-  </si>
-  <si>
-    <r>
-      <t>This file is usually named '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_Xcol.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_alignment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' folder of the IDSL.IPA pipeline</t>
-    </r>
-  </si>
-  <si>
-    <t>R variable name</t>
+      <t xml:space="preserve"> elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1648,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1539,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1682,6 +1876,236 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -1714,230 +2138,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,12 +2363,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,338 +2384,341 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2528,25 +2730,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2557,68 +2768,77 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2911,7 +3131,7 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2928,216 +3148,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="99" t="s">
+      <c r="C2" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D8, "/", formula_source!D9, ".Rdata")</f>
-        <v>/IPDB_folder//IPDB_name.Rdata</v>
+        <v>/path/to/folder/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="110">
+      <c r="C10" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="107">
         <v>35</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="D11" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3145,17 +3365,17 @@
         <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3166,75 +3386,75 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="189"/>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="188"/>
+      <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="118" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="119" t="s">
+      <c r="D15" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+    </row>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-    </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
+      <c r="D16" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="12">
         <v>0.01</v>
@@ -3253,9 +3473,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>39</v>
@@ -3264,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -3277,9 +3497,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>40</v>
@@ -3288,7 +3508,7 @@
         <v>950</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="12">
         <v>950</v>
@@ -3301,12 +3521,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
@@ -3319,12 +3539,12 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
@@ -3337,168 +3557,168 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
-      <c r="B22" s="120" t="s">
+      <c r="A22" s="180"/>
+      <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="122" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
+      <c r="C22" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
-      <c r="B23" s="128" t="s">
+      <c r="A23" s="181"/>
+      <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="129"/>
+    </row>
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="181"/>
+      <c r="B24" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="131"/>
+    </row>
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="182"/>
+      <c r="B25" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="135" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+    </row>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="190"/>
+      <c r="B27" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+    </row>
+    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="190"/>
+      <c r="B28" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="92">
+        <v>50</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="190"/>
+      <c r="B29" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="92">
+        <v>20</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+    </row>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="191"/>
+      <c r="B30" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="132"/>
-    </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
-      <c r="B24" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="134"/>
-    </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
-      <c r="B25" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="136" t="s">
+      <c r="C30" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="137" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="139"/>
-    </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="190" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-    </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>269</v>
-      </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="191"/>
-      <c r="B28" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="95">
-        <v>50</v>
-      </c>
-      <c r="E28" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-    </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="191"/>
-      <c r="B29" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="95">
-        <v>20</v>
-      </c>
-      <c r="E29" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-    </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="192"/>
-      <c r="B30" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="141" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
+      <c r="E30" s="140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3515,11 +3735,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3534,28 +3754,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F1" s="77" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="193" t="s">
-        <v>236</v>
+      <c r="A2" s="192" t="s">
+        <v>221</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -3565,12 +3785,12 @@
       <c r="E2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73">
@@ -3579,11 +3799,11 @@
       <c r="E3" s="73">
         <v>1200</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="195" t="s">
-        <v>83</v>
+      <c r="A4" s="194" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>46</v>
@@ -3597,10 +3817,10 @@
       <c r="E4" s="66">
         <v>50</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="196"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
@@ -3613,10 +3833,10 @@
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
@@ -3629,10 +3849,10 @@
       <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="196"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3645,15 +3865,15 @@
       <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F7" s="85"/>
-    </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196"/>
-      <c r="B8" s="87" t="s">
-        <v>53</v>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="195"/>
+      <c r="B8" s="177" t="s">
+        <v>265</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -3661,17 +3881,17 @@
       <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>106</v>
+      <c r="F8" s="84" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -3679,15 +3899,15 @@
       <c r="E9" s="26">
         <v>0</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="196"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -3695,15 +3915,15 @@
       <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="196"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -3711,15 +3931,15 @@
       <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="80" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="73">
         <v>0</v>
@@ -3727,17 +3947,17 @@
       <c r="E12" s="73">
         <v>0</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="201" t="s">
-        <v>95</v>
+      <c r="A13" s="200" t="s">
+        <v>92</v>
       </c>
       <c r="B13" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="66">
         <v>0</v>
@@ -3745,31 +3965,32 @@
       <c r="E13" s="66">
         <v>2</v>
       </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="201"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="85"/>
+      <c r="E14" s="26">
+        <f>2*E4+3*E13+6</f>
+        <v>112</v>
+      </c>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="201"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -3777,15 +3998,15 @@
       <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="201"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -3793,15 +4014,15 @@
       <c r="E16" s="26">
         <v>0</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="201"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="D17" s="26">
         <v>0</v>
@@ -3809,15 +4030,15 @@
       <c r="E17" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="85"/>
-    </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="201"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="200"/>
       <c r="B18" s="24" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -3825,17 +4046,17 @@
       <c r="E18" s="26">
         <v>0</v>
       </c>
-      <c r="F18" s="86" t="s">
-        <v>225</v>
+      <c r="F18" s="84" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="201"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -3843,15 +4064,15 @@
       <c r="E19" s="26">
         <v>1</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="201"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -3859,181 +4080,215 @@
       <c r="E20" s="26">
         <v>10</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="201"/>
-      <c r="B21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="A21" s="200"/>
+      <c r="B21" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="73">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="73">
         <v>1</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="205" t="s">
+      <c r="A22" s="207" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="208"/>
+      <c r="B23" s="205" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="208"/>
+      <c r="B24" s="205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="209"/>
+      <c r="B25" s="206" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="67">
+        <v>6</v>
+      </c>
+      <c r="F25" s="178" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="216" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="217"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="195"/>
+      <c r="B27" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="196"/>
-      <c r="B23" s="198" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="81" t="s">
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="195"/>
+      <c r="B28" s="197" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="198"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="195"/>
+      <c r="B29" s="197" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="195"/>
+      <c r="B30" s="202" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="80" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="23" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="196"/>
-      <c r="B24" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="196"/>
-      <c r="B25" s="217" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="196"/>
-      <c r="B26" s="198" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="196"/>
-      <c r="B27" s="198" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F27" s="85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="196"/>
-      <c r="B28" s="211" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="212"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="208" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="26">
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="195"/>
+      <c r="B31" s="210" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="211"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="26">
         <v>16</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F31" s="83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="196"/>
-      <c r="B30" s="211" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="212"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" s="85"/>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="197"/>
-      <c r="B31" s="214" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="215"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="195"/>
+      <c r="B32" s="202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="203"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="27" t="str">
+        <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
+        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
+      </c>
+      <c r="F32" s="83"/>
+    </row>
+    <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="196"/>
+      <c r="B33" s="213" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="214"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A22:A31"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4046,7 +4301,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,136 +4318,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="146" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="A2" s="219" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D7" s="32">
         <v>35</v>
@@ -4205,15 +4460,16 @@
       <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>260</v>
+        <v>201</v>
+      </c>
+      <c r="D8" s="32" t="str">
+        <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
+        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="32"/>
@@ -4221,22 +4477,22 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220"/>
-      <c r="B9" s="149" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="149" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="151" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="A9" s="221"/>
+      <c r="B9" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4254,7 +4510,7 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4271,16 +4527,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
@@ -4291,91 +4547,91 @@
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="154" t="s">
+      <c r="A2" s="223" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="155" t="s">
-        <v>217</v>
+      <c r="E2" s="152" t="s">
+        <v>206</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223"/>
+      <c r="A3" s="224"/>
       <c r="B3" s="62" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="223"/>
+      <c r="A4" s="224"/>
       <c r="B4" s="62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="223"/>
+      <c r="A5" s="224"/>
       <c r="B5" s="62" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224"/>
-      <c r="B6" s="156" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="157" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="158">
+      <c r="A6" s="225"/>
+      <c r="B6" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="155">
         <v>20</v>
       </c>
-      <c r="E6" s="159" t="s">
+      <c r="E6" s="156" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="56"/>
@@ -4383,122 +4639,127 @@
       <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="107" t="s">
-        <v>194</v>
+      <c r="D7" s="103" t="str">
+        <f>parameters!D11</f>
+        <v>/MS1/</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>187</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>81</v>
+      <c r="D8" s="11" t="str">
+        <f>parameters!D12</f>
+        <v>All</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>0</v>
+      <c r="D9" s="11" t="str">
+        <f>parameters!D13</f>
+        <v>mzML</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>247</v>
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>parameters!D14</f>
+        <v>/peaklists</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="189"/>
-      <c r="B11" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="119"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="115" t="str">
+        <f>parameters!D15</f>
+        <v>/path/to/folder/IDSL.UFA</v>
+      </c>
+      <c r="E11" s="116"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="115" t="s">
-        <v>273</v>
+      <c r="A12" s="179" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>251</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" s="12">
         <v>0.01</v>
@@ -4511,27 +4772,27 @@
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D14" s="12">
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="180"/>
       <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>39</v>
@@ -4540,16 +4801,16 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="180"/>
       <c r="B16" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>40</v>
@@ -4558,19 +4819,19 @@
         <v>950</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="12">
         <v>3</v>
@@ -4583,17 +4844,17 @@
       <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="225"/>
-      <c r="B18" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="166">
+      <c r="A18" s="226"/>
+      <c r="B18" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="163">
         <v>30</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="164" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="57"/>
@@ -4601,30 +4862,32 @@
       <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="226" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="161" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="163" t="s">
-        <v>160</v>
+      <c r="A19" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="159" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>155</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227"/>
+      <c r="A20" s="228"/>
       <c r="B20" s="50" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="53" t="s">
@@ -4635,71 +4898,71 @@
       <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="227"/>
+      <c r="A21" s="228"/>
       <c r="B21" s="50" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="227"/>
+      <c r="A22" s="228"/>
       <c r="B22" s="50" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="227"/>
+      <c r="A23" s="228"/>
       <c r="B23" s="50" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D23" s="52">
         <v>50000</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="228"/>
-      <c r="B24" s="168" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="170">
+      <c r="A24" s="229"/>
+      <c r="B24" s="165" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="166" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="167">
         <v>10</v>
       </c>
-      <c r="E24" s="171" t="s">
+      <c r="E24" s="168" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="57"/>
@@ -4707,7 +4970,7 @@
       <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
       <c r="D25" s="57"/>
@@ -4717,7 +4980,7 @@
       <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="221"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="61"/>
@@ -4727,7 +4990,7 @@
       <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="221"/>
+      <c r="A27" s="222"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
       <c r="D27" s="57"/>
@@ -4754,8 +5017,8 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,262 +5035,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="D2" s="101" t="str">
+        <f>parameters!D11</f>
+        <v>/MS1/</v>
+      </c>
+      <c r="E2" s="235"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="188"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="187"/>
+      <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>97</v>
+      <c r="D3" s="101" t="str">
+        <f>parameters!D12</f>
+        <v>All</v>
+      </c>
+      <c r="E3" s="235" t="s">
+        <v>94</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="187"/>
+      <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>256</v>
+      <c r="D4" s="101" t="str">
+        <f>parameters!D13</f>
+        <v>mzML</v>
+      </c>
+      <c r="E4" s="235" t="s">
+        <v>239</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="187"/>
+      <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>90</v>
+      <c r="C5" s="233" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="101" t="str">
+        <f>parameters!D14</f>
+        <v>/peaklists</v>
+      </c>
+      <c r="E5" s="235" t="s">
+        <v>285</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="189"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="188"/>
+      <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="D6" s="113" t="str">
+        <f>parameters!D15</f>
+        <v>/path/to/folder/IDSL.UFA</v>
+      </c>
+      <c r="E6" s="236" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="229" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="174" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
+      <c r="A7" s="230" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D9" s="42">
         <v>0.1</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="230"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D11" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
+      <c r="A12" s="231"/>
       <c r="B12" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="230"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="42">
         <v>0.01</v>
@@ -5040,12 +5308,12 @@
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
+      <c r="A15" s="231"/>
       <c r="B15" s="42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D15" s="42">
         <v>30</v>
@@ -5058,40 +5326,40 @@
       <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
+      <c r="A16" s="231"/>
       <c r="B16" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="176" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="177" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="176" t="s">
+      <c r="A17" s="232"/>
+      <c r="B17" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="E17" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -1454,12 +1454,6 @@
     <t>OveralRank</t>
   </si>
   <si>
-    <t>This rule is to constrain number of bromine and chlorine atoms in a compound. Suggested to use values between [0-8].</t>
-  </si>
-  <si>
-    <t>This rule is to constrain number of halogen atoms in a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
-  </si>
-  <si>
     <t>IPDB_ECS</t>
   </si>
   <si>
@@ -1574,6 +1568,12 @@
       </rPr>
       <t xml:space="preserve"> elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
     </r>
+  </si>
+  <si>
+    <t>This rule is to constrain number of bromine and chlorine atoms for a compound. Suggested to use values between [0-8].</t>
+  </si>
+  <si>
+    <t>This rule is to constrain number of halogen atoms for a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
   </si>
 </sst>
 </file>
@@ -2666,6 +2666,18 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2704,6 +2716,72 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2715,77 +2793,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2827,18 +2839,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3129,25 +3129,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="86" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -3173,8 +3173,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="187" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="94" t="s">
@@ -3193,8 +3193,8 @@
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="184"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="188"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -3211,8 +3211,8 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="188"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3229,8 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="188"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3248,8 +3248,8 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="188"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -3266,8 +3266,8 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="188"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="188"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3302,8 +3302,8 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="188"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -3320,8 +3320,8 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="189"/>
       <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
@@ -3338,8 +3338,8 @@
       <c r="G10" s="107"/>
       <c r="H10" s="107"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186" t="s">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="190" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="101" t="s">
@@ -3356,8 +3356,8 @@
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="191"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="187"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="191"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3392,8 +3392,8 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="191"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3410,8 +3410,8 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="188"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="192"/>
       <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="183" t="s">
         <v>226</v>
       </c>
       <c r="B16" s="109" t="s">
@@ -3448,8 +3448,8 @@
       <c r="G16" s="111"/>
       <c r="H16" s="111"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="184"/>
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -3472,8 +3472,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="184"/>
       <c r="B18" s="6" t="s">
         <v>83</v>
       </c>
@@ -3496,8 +3496,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="184"/>
       <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
@@ -3520,8 +3520,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="184"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3538,8 +3538,8 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="184"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3556,8 +3556,8 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="180"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="184"/>
       <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
@@ -3574,8 +3574,8 @@
       <c r="G22" s="119"/>
       <c r="H22" s="119"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="185"/>
       <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
@@ -3592,8 +3592,8 @@
       <c r="G23" s="127"/>
       <c r="H23" s="129"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="185"/>
       <c r="B24" s="130" t="s">
         <v>99</v>
       </c>
@@ -3610,8 +3610,8 @@
       <c r="G24" s="86"/>
       <c r="H24" s="131"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="186"/>
       <c r="B25" s="132" t="s">
         <v>109</v>
       </c>
@@ -3628,15 +3628,15 @@
       <c r="G25" s="134"/>
       <c r="H25" s="136"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="189" t="s">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="193" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="121" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="122" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D26" s="123" t="s">
         <v>232</v>
@@ -3648,13 +3648,13 @@
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="190"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="194"/>
       <c r="B27" s="88" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D27" s="90" t="s">
         <v>233</v>
@@ -3666,8 +3666,8 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
     </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="190"/>
+    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="194"/>
       <c r="B28" s="88" t="s">
         <v>160</v>
       </c>
@@ -3684,8 +3684,8 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="190"/>
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="194"/>
       <c r="B29" s="88" t="s">
         <v>197</v>
       </c>
@@ -3702,8 +3702,8 @@
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="195"/>
       <c r="B30" s="137" t="s">
         <v>222</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="G30" s="139"/>
       <c r="H30" s="139"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A16:A25"/>
@@ -3737,23 +3737,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="79.140625" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="21"/>
+    <col min="6" max="6" width="79.109375" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -3773,8 +3773,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="218" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="69"/>
@@ -3787,8 +3787,8 @@
       </c>
       <c r="F2" s="82"/>
     </row>
-    <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193"/>
+    <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="219"/>
       <c r="B3" s="68" t="s">
         <v>105</v>
       </c>
@@ -3801,8 +3801,8 @@
       </c>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="194" t="s">
+    <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="220" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -3819,8 +3819,8 @@
       </c>
       <c r="F4" s="82"/>
     </row>
-    <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="195"/>
+    <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="204"/>
       <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
@@ -3835,8 +3835,8 @@
       </c>
       <c r="F5" s="83"/>
     </row>
-    <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="195"/>
+    <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="204"/>
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
       <c r="F6" s="83"/>
     </row>
-    <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="195"/>
+    <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="204"/>
       <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3867,8 +3867,8 @@
       </c>
       <c r="F7" s="83"/>
     </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="195"/>
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="204"/>
       <c r="B8" s="177" t="s">
         <v>265</v>
       </c>
@@ -3882,11 +3882,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="195"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="204"/>
       <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
@@ -3901,8 +3901,8 @@
       </c>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="195"/>
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="204"/>
       <c r="B10" s="24" t="s">
         <v>55</v>
       </c>
@@ -3917,8 +3917,8 @@
       </c>
       <c r="F10" s="83"/>
     </row>
-    <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="195"/>
+    <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="204"/>
       <c r="B11" s="24" t="s">
         <v>57</v>
       </c>
@@ -3933,8 +3933,8 @@
       </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
+    <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="205"/>
       <c r="B12" s="70" t="s">
         <v>59</v>
       </c>
@@ -3949,8 +3949,8 @@
       </c>
       <c r="F12" s="81"/>
     </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="200" t="s">
+    <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="221" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="71" t="s">
@@ -3967,8 +3967,8 @@
       </c>
       <c r="F13" s="82"/>
     </row>
-    <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="200"/>
+    <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="221"/>
       <c r="B14" s="24" t="s">
         <v>65</v>
       </c>
@@ -3984,8 +3984,8 @@
       </c>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="200"/>
+    <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="221"/>
       <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
@@ -4000,8 +4000,8 @@
       </c>
       <c r="F15" s="83"/>
     </row>
-    <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="200"/>
+    <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="221"/>
       <c r="B16" s="24" t="s">
         <v>69</v>
       </c>
@@ -4016,8 +4016,8 @@
       </c>
       <c r="F16" s="83"/>
     </row>
-    <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="200"/>
+    <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="221"/>
       <c r="B17" s="24" t="s">
         <v>71</v>
       </c>
@@ -4032,8 +4032,8 @@
       </c>
       <c r="F17" s="83"/>
     </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="200"/>
+    <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="221"/>
       <c r="B18" s="24" t="s">
         <v>266</v>
       </c>
@@ -4047,11 +4047,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="200"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="221"/>
       <c r="B19" s="24" t="s">
         <v>73</v>
       </c>
@@ -4066,8 +4066,8 @@
       </c>
       <c r="F19" s="83"/>
     </row>
-    <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="200"/>
+    <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="221"/>
       <c r="B20" s="24" t="s">
         <v>75</v>
       </c>
@@ -4082,8 +4082,8 @@
       </c>
       <c r="F20" s="83"/>
     </row>
-    <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="200"/>
+    <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="221"/>
       <c r="B21" s="70" t="s">
         <v>77</v>
       </c>
@@ -4098,15 +4098,15 @@
       </c>
       <c r="F21" s="81"/>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="207" t="s">
+    <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="201" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
       <c r="E22" s="79" t="b">
         <v>1</v>
       </c>
@@ -4114,13 +4114,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="208"/>
-      <c r="B23" s="205" t="s">
+    <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="202"/>
+      <c r="B23" s="199" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4128,13 +4128,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="208"/>
-      <c r="B24" s="205" t="s">
+    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="202"/>
+      <c r="B24" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
       <c r="E24" s="26" t="s">
         <v>216</v>
       </c>
@@ -4142,29 +4142,29 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
-      <c r="B25" s="206" t="s">
+    <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="203"/>
+      <c r="B25" s="200" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
       <c r="E25" s="67">
         <v>6</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="195" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="204" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="216" t="s">
+      <c r="B26" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="217"/>
-      <c r="D26" s="218"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="79" t="b">
         <v>1</v>
       </c>
@@ -4172,13 +4172,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="195"/>
-      <c r="B27" s="197" t="s">
+    <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="204"/>
+      <c r="B27" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="208"/>
       <c r="E27" s="79" t="s">
         <v>272</v>
       </c>
@@ -4186,13 +4186,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195"/>
-      <c r="B28" s="197" t="s">
+    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="204"/>
+      <c r="B28" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="208"/>
       <c r="E28" s="27" t="s">
         <v>217</v>
       </c>
@@ -4200,13 +4200,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="195"/>
-      <c r="B29" s="197" t="s">
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="204"/>
+      <c r="B29" s="206" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="208"/>
       <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4214,13 +4214,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="195"/>
-      <c r="B30" s="202" t="s">
+    <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="204"/>
+      <c r="B30" s="196" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="203"/>
-      <c r="D30" s="204"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="198"/>
       <c r="E30" s="26" t="s">
         <v>256</v>
       </c>
@@ -4228,13 +4228,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195"/>
-      <c r="B31" s="210" t="s">
+    <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="204"/>
+      <c r="B31" s="209" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="211"/>
-      <c r="D31" s="212"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="26">
         <v>16</v>
       </c>
@@ -4242,36 +4242,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="195"/>
-      <c r="B32" s="202" t="s">
+    <row r="32" spans="1:6" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="204"/>
+      <c r="B32" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="F32" s="83"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="196"/>
-      <c r="B33" s="213" t="s">
+    <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="205"/>
+      <c r="B33" s="212" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="214"/>
-      <c r="D33" s="215"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
       <c r="E33" s="67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F33" s="81" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -4283,12 +4289,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4304,20 +4304,20 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="75.5546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="29" customWidth="1"/>
     <col min="7" max="7" width="47" style="29" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="8" max="8" width="49.33203125" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -4343,8 +4343,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:8" s="31" customFormat="1" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="223" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="141" t="s">
@@ -4363,8 +4363,8 @@
       <c r="G2" s="144"/>
       <c r="H2" s="144"/>
     </row>
-    <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
+    <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="224"/>
       <c r="B3" s="32" t="s">
         <v>114</v>
       </c>
@@ -4387,8 +4387,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="220"/>
+    <row r="4" spans="1:8" s="31" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="224"/>
       <c r="B4" s="32" t="s">
         <v>115</v>
       </c>
@@ -4405,8 +4405,8 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220"/>
+    <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="224"/>
       <c r="B5" s="32" t="s">
         <v>116</v>
       </c>
@@ -4423,8 +4423,8 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220"/>
+    <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="224"/>
       <c r="B6" s="32" t="s">
         <v>117</v>
       </c>
@@ -4441,8 +4441,8 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="220"/>
+    <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="224"/>
       <c r="B7" s="32" t="s">
         <v>118</v>
       </c>
@@ -4459,8 +4459,8 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
+    <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="224"/>
       <c r="B8" s="32" t="s">
         <v>125</v>
       </c>
@@ -4476,8 +4476,8 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="221"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="225"/>
       <c r="B9" s="146" t="s">
         <v>228</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="G9" s="146"/>
       <c r="H9" s="146"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A9"/>
@@ -4513,20 +4513,20 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>185</v>
       </c>
@@ -4546,8 +4546,8 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="227" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -4566,8 +4566,8 @@
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="224"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="228"/>
       <c r="B3" s="62" t="s">
         <v>162</v>
       </c>
@@ -4584,8 +4584,8 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="228"/>
       <c r="B4" s="62" t="s">
         <v>163</v>
       </c>
@@ -4602,8 +4602,8 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="228"/>
       <c r="B5" s="62" t="s">
         <v>164</v>
       </c>
@@ -4620,8 +4620,8 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="229"/>
       <c r="B6" s="153" t="s">
         <v>165</v>
       </c>
@@ -4638,8 +4638,8 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186" t="s">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="190" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="101" t="s">
@@ -4659,8 +4659,8 @@
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="191"/>
       <c r="B8" s="5" t="s">
         <v>167</v>
       </c>
@@ -4678,8 +4678,8 @@
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="191"/>
       <c r="B9" s="5" t="s">
         <v>168</v>
       </c>
@@ -4697,8 +4697,8 @@
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="187"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="191"/>
       <c r="B10" s="5" t="s">
         <v>169</v>
       </c>
@@ -4716,8 +4716,8 @@
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="192"/>
       <c r="B11" s="113" t="s">
         <v>170</v>
       </c>
@@ -4733,8 +4733,8 @@
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="183" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="111" t="s">
@@ -4753,8 +4753,8 @@
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="184"/>
       <c r="B13" s="6" t="s">
         <v>172</v>
       </c>
@@ -4771,8 +4771,8 @@
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="184"/>
       <c r="B14" s="6" t="s">
         <v>173</v>
       </c>
@@ -4789,8 +4789,8 @@
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="184"/>
       <c r="B15" s="6" t="s">
         <v>174</v>
       </c>
@@ -4807,8 +4807,8 @@
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="184"/>
       <c r="B16" s="6" t="s">
         <v>175</v>
       </c>
@@ -4825,8 +4825,8 @@
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="184"/>
       <c r="B17" s="6" t="s">
         <v>176</v>
       </c>
@@ -4843,8 +4843,8 @@
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="230"/>
       <c r="B18" s="161" t="s">
         <v>177</v>
       </c>
@@ -4861,8 +4861,8 @@
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="227" t="s">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="231" t="s">
         <v>153</v>
       </c>
       <c r="B19" s="157" t="s">
@@ -4881,8 +4881,8 @@
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="228"/>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="232"/>
       <c r="B20" s="50" t="s">
         <v>179</v>
       </c>
@@ -4897,8 +4897,8 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="228"/>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="232"/>
       <c r="B21" s="50" t="s">
         <v>181</v>
       </c>
@@ -4915,8 +4915,8 @@
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="228"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="232"/>
       <c r="B22" s="50" t="s">
         <v>182</v>
       </c>
@@ -4933,8 +4933,8 @@
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="228"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="232"/>
       <c r="B23" s="50" t="s">
         <v>183</v>
       </c>
@@ -4951,8 +4951,8 @@
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="229"/>
+    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="233"/>
       <c r="B24" s="165" t="s">
         <v>184</v>
       </c>
@@ -4969,8 +4969,8 @@
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="226"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
       <c r="D25" s="57"/>
@@ -4979,8 +4979,8 @@
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="222"/>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="226"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="61"/>
@@ -4989,8 +4989,8 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="226"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
       <c r="D27" s="57"/>
@@ -5021,20 +5021,20 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="76.44140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="66.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="29" customWidth="1"/>
     <col min="7" max="7" width="47" style="29" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="8" max="8" width="49.33203125" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -5060,103 +5060,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="190" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="233" t="s">
+      <c r="C2" s="179" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="101" t="str">
         <f>parameters!D11</f>
         <v>/MS1/</v>
       </c>
-      <c r="E2" s="235"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="191"/>
       <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="179" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="101" t="str">
         <f>parameters!D12</f>
         <v>All</v>
       </c>
-      <c r="E3" s="235" t="s">
+      <c r="E3" s="181" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="191"/>
       <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="179" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="101" t="str">
         <f>parameters!D13</f>
         <v>mzML</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="181" t="s">
         <v>239</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="191"/>
       <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="179" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="101" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
-      <c r="E5" s="235" t="s">
-        <v>285</v>
+      <c r="E5" s="181" t="s">
+        <v>283</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="192"/>
       <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="234" t="s">
+      <c r="C6" s="180" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="113" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder/IDSL.UFA</v>
       </c>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="182" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
     </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="230" t="s">
+    <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="234" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="169" t="s">
@@ -5175,8 +5175,8 @@
       <c r="G7" s="172"/>
       <c r="H7" s="172"/>
     </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="231"/>
+    <row r="8" spans="1:8" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="235"/>
       <c r="B8" s="42" t="s">
         <v>129</v>
       </c>
@@ -5193,8 +5193,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="231"/>
+    <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="235"/>
       <c r="B9" s="42" t="s">
         <v>130</v>
       </c>
@@ -5211,8 +5211,8 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="231"/>
+    <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="235"/>
       <c r="B10" s="42" t="s">
         <v>131</v>
       </c>
@@ -5229,8 +5229,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="231"/>
+    <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="235"/>
       <c r="B11" s="42" t="s">
         <v>132</v>
       </c>
@@ -5253,8 +5253,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="231"/>
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="235"/>
       <c r="B12" s="42" t="s">
         <v>133</v>
       </c>
@@ -5271,8 +5271,8 @@
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="231"/>
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="235"/>
       <c r="B13" s="42" t="s">
         <v>134</v>
       </c>
@@ -5289,8 +5289,8 @@
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
     </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="231"/>
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="235"/>
       <c r="B14" s="42" t="s">
         <v>139</v>
       </c>
@@ -5307,8 +5307,8 @@
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="231"/>
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="235"/>
       <c r="B15" s="42" t="s">
         <v>140</v>
       </c>
@@ -5325,8 +5325,8 @@
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
     </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231"/>
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="235"/>
       <c r="B16" s="42" t="s">
         <v>143</v>
       </c>
@@ -5343,8 +5343,8 @@
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
     </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="232"/>
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="236"/>
       <c r="B17" s="173" t="s">
         <v>235</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="G17" s="176"/>
       <c r="H17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:A17"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="290">
   <si>
     <t>mzML</t>
   </si>
@@ -1574,6 +1574,9 @@
   </si>
   <si>
     <t>This rule is to constrain number of halogen atoms for a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
+  </si>
+  <si>
+    <t>≥ 1 (Visit https://github.com/idslme/IDSL.UFA/wiki/NDCS-RCS)</t>
   </si>
 </sst>
 </file>
@@ -2717,6 +2720,36 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2741,21 +2774,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2781,21 +2799,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3532,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3550,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3774,7 +3777,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="196" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="69"/>
@@ -3788,7 +3791,7 @@
       <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="219"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="68" t="s">
         <v>105</v>
       </c>
@@ -3802,7 +3805,7 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="198" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -3820,7 +3823,7 @@
       <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
@@ -3852,7 +3855,7 @@
       <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3868,7 +3871,7 @@
       <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="204"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="177" t="s">
         <v>265</v>
       </c>
@@ -3886,7 +3889,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
@@ -3902,7 +3905,7 @@
       <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="204"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="24" t="s">
         <v>55</v>
       </c>
@@ -3918,7 +3921,7 @@
       <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="24" t="s">
         <v>57</v>
       </c>
@@ -3934,7 +3937,7 @@
       <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="70" t="s">
         <v>59</v>
       </c>
@@ -3950,7 +3953,7 @@
       <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="204" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="71" t="s">
@@ -3968,7 +3971,7 @@
       <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="24" t="s">
         <v>65</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
@@ -4001,7 +4004,7 @@
       <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="24" t="s">
         <v>69</v>
       </c>
@@ -4017,7 +4020,7 @@
       <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="24" t="s">
         <v>71</v>
       </c>
@@ -4033,7 +4036,7 @@
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="24" t="s">
         <v>266</v>
       </c>
@@ -4051,7 +4054,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="24" t="s">
         <v>73</v>
       </c>
@@ -4067,7 +4070,7 @@
       <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="24" t="s">
         <v>75</v>
       </c>
@@ -4083,7 +4086,7 @@
       <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="221"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="70" t="s">
         <v>77</v>
       </c>
@@ -4099,14 +4102,14 @@
       <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="211" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="205" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
       <c r="E22" s="79" t="b">
         <v>1</v>
       </c>
@@ -4115,12 +4118,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="202"/>
-      <c r="B23" s="199" t="s">
+      <c r="A23" s="212"/>
+      <c r="B23" s="209" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4129,12 +4132,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
-      <c r="B24" s="199" t="s">
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="26" t="s">
         <v>216</v>
       </c>
@@ -4143,12 +4146,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
-      <c r="B25" s="200" t="s">
+      <c r="A25" s="213"/>
+      <c r="B25" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
       <c r="E25" s="67">
         <v>6</v>
       </c>
@@ -4157,14 +4160,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="222"/>
       <c r="E26" s="79" t="b">
         <v>1</v>
       </c>
@@ -4173,12 +4176,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="204"/>
-      <c r="B27" s="206" t="s">
+      <c r="A27" s="199"/>
+      <c r="B27" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="207"/>
-      <c r="D27" s="208"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
       <c r="E27" s="79" t="s">
         <v>272</v>
       </c>
@@ -4187,12 +4190,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="204"/>
-      <c r="B28" s="206" t="s">
+      <c r="A28" s="199"/>
+      <c r="B28" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="207"/>
-      <c r="D28" s="208"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
       <c r="E28" s="27" t="s">
         <v>217</v>
       </c>
@@ -4201,12 +4204,12 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="204"/>
-      <c r="B29" s="206" t="s">
+      <c r="A29" s="199"/>
+      <c r="B29" s="201" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="208"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
       <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4215,12 +4218,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204"/>
-      <c r="B30" s="196" t="s">
+      <c r="A30" s="199"/>
+      <c r="B30" s="206" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="197"/>
-      <c r="D30" s="198"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="26" t="s">
         <v>256</v>
       </c>
@@ -4229,12 +4232,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="204"/>
-      <c r="B31" s="209" t="s">
+      <c r="A31" s="199"/>
+      <c r="B31" s="214" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="210"/>
-      <c r="D31" s="211"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="216"/>
       <c r="E31" s="26">
         <v>16</v>
       </c>
@@ -4243,12 +4246,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="204"/>
-      <c r="B32" s="196" t="s">
+      <c r="A32" s="199"/>
+      <c r="B32" s="206" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="208"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
@@ -4256,12 +4259,12 @@
       <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="205"/>
-      <c r="B33" s="212" t="s">
+      <c r="A33" s="200"/>
+      <c r="B33" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="219"/>
       <c r="E33" s="67" t="s">
         <v>282</v>
       </c>
@@ -4272,12 +4275,6 @@
     <row r="34" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -4289,6 +4286,12 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="292">
   <si>
     <t>mzML</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>IDSL.IPA peaklists must be in *.Rdata format</t>
-  </si>
-  <si>
-    <t>Coefficients of identification score function</t>
   </si>
   <si>
     <t>Aligned table molecular formula annotation</t>
@@ -1577,6 +1574,15 @@
   </si>
   <si>
     <t>≥ 1 (Visit https://github.com/idslme/IDSL.UFA/wiki/NDCS-RCS)</t>
+  </si>
+  <si>
+    <t>Coefficients of identification score function (See equation 6 in the main manuscript)</t>
+  </si>
+  <si>
+    <t>Minimum PCS (‰) (See equation 4 in the main manuscript)</t>
+  </si>
+  <si>
+    <t>Maximum NEME (mDa) (See equation 5 in the main manuscript)</t>
   </si>
 </sst>
 </file>
@@ -2720,6 +2726,72 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2730,75 +2802,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3132,9 +3138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3184,13 +3190,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="97"/>
       <c r="G2" s="97"/>
@@ -3202,13 +3208,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -3220,13 +3226,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -3238,14 +3244,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D8, "/", formula_source!D9, ".Rdata")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -3257,13 +3263,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -3275,13 +3281,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -3293,13 +3299,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -3311,13 +3317,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -3329,7 +3335,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="107">
         <v>35</v>
@@ -3352,7 +3358,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="104"/>
       <c r="F11" s="103"/>
@@ -3371,7 +3377,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3389,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3404,10 +3410,10 @@
         <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -3422,10 +3428,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
@@ -3433,19 +3439,19 @@
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="109" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="E16" s="112" t="s">
         <v>101</v>
-      </c>
-      <c r="E16" s="112" t="s">
-        <v>102</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
@@ -3457,7 +3463,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="12">
         <v>0.01</v>
@@ -3481,13 +3487,13 @@
         <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -3505,7 +3511,7 @@
         <v>84</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="D19" s="12">
         <v>950</v>
@@ -3535,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3547,13 +3553,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3565,13 +3571,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="119"/>
       <c r="G22" s="119"/>
@@ -3583,13 +3589,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="127"/>
       <c r="G23" s="127"/>
@@ -3598,16 +3604,16 @@
     <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="185"/>
       <c r="B24" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="85" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
@@ -3616,16 +3622,16 @@
     <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="186"/>
       <c r="B25" s="132" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" s="135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" s="134"/>
       <c r="G25" s="134"/>
@@ -3633,19 +3639,19 @@
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="193" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
@@ -3654,16 +3660,16 @@
     <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="194"/>
       <c r="B27" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
@@ -3672,10 +3678,10 @@
     <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="194"/>
       <c r="B28" s="88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="92">
         <v>50</v>
@@ -3690,10 +3696,10 @@
     <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="194"/>
       <c r="B29" s="88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D29" s="92">
         <v>20</v>
@@ -3708,16 +3714,16 @@
     <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="195"/>
       <c r="B30" s="137" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="138" t="s">
         <v>222</v>
-      </c>
-      <c r="C30" s="138" t="s">
-        <v>223</v>
       </c>
       <c r="D30" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F30" s="139"/>
       <c r="G30" s="139"/>
@@ -3764,21 +3770,21 @@
         <v>42</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="76" t="s">
         <v>103</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>104</v>
       </c>
       <c r="F1" s="77" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>221</v>
+      <c r="A2" s="218" t="s">
+        <v>220</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -3791,9 +3797,9 @@
       <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="197"/>
+      <c r="A3" s="219"/>
       <c r="B3" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73">
@@ -3805,7 +3811,7 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="220" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -3823,7 +3829,7 @@
       <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
@@ -3839,7 +3845,7 @@
       <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="199"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
@@ -3855,7 +3861,7 @@
       <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3871,12 +3877,12 @@
       <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -3885,11 +3891,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
@@ -3905,7 +3911,7 @@
       <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="24" t="s">
         <v>55</v>
       </c>
@@ -3921,7 +3927,7 @@
       <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="24" t="s">
         <v>57</v>
       </c>
@@ -3937,7 +3943,7 @@
       <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="70" t="s">
         <v>59</v>
       </c>
@@ -3953,8 +3959,8 @@
       <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="204" t="s">
-        <v>92</v>
+      <c r="A13" s="221" t="s">
+        <v>91</v>
       </c>
       <c r="B13" s="71" t="s">
         <v>63</v>
@@ -3971,7 +3977,7 @@
       <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="204"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="24" t="s">
         <v>65</v>
       </c>
@@ -3988,7 +3994,7 @@
       <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="204"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="204"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="24" t="s">
         <v>69</v>
       </c>
@@ -4020,7 +4026,7 @@
       <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="24" t="s">
         <v>71</v>
       </c>
@@ -4036,12 +4042,12 @@
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -4050,11 +4056,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="24" t="s">
         <v>73</v>
       </c>
@@ -4070,7 +4076,7 @@
       <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="204"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="24" t="s">
         <v>75</v>
       </c>
@@ -4086,7 +4092,7 @@
       <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="204"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="70" t="s">
         <v>77</v>
       </c>
@@ -4102,142 +4108,142 @@
       <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="211" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="205" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
+      <c r="A22" s="201" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="222" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
       <c r="E22" s="79" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
-      <c r="B23" s="209" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
+      <c r="A23" s="202"/>
+      <c r="B23" s="199" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="202"/>
+      <c r="B24" s="199" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="84" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
-      <c r="B24" s="209" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="213"/>
-      <c r="B25" s="210" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="200" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
       <c r="E25" s="67">
         <v>6</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="220" t="s">
+      <c r="A26" s="204" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="79" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="201" t="s">
+      <c r="A27" s="204"/>
+      <c r="B27" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="208"/>
       <c r="E27" s="79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
-      <c r="B28" s="201" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="206" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="207"/>
+      <c r="D28" s="208"/>
       <c r="E28" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" s="84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="204"/>
+      <c r="B29" s="206" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="199"/>
-      <c r="B29" s="201" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="208"/>
       <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="199"/>
-      <c r="B30" s="206" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="207"/>
-      <c r="D30" s="208"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="196" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="197"/>
+      <c r="D30" s="198"/>
       <c r="E30" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="84" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
-      <c r="B31" s="214" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="215"/>
-      <c r="D31" s="216"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="26">
         <v>16</v>
       </c>
@@ -4246,12 +4252,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
-      <c r="B32" s="206" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="208"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
@@ -4259,22 +4265,28 @@
       <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="200"/>
-      <c r="B33" s="217" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="219"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="212" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
       <c r="E33" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -4286,12 +4298,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4348,19 +4354,19 @@
     </row>
     <row r="2" spans="1:8" s="31" customFormat="1" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="144"/>
       <c r="G2" s="144"/>
@@ -4369,40 +4375,40 @@
     <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="224"/>
       <c r="B3" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>122</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="31" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="224"/>
       <c r="B4" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -4411,16 +4417,16 @@
     <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="224"/>
       <c r="B5" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>256</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>257</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
@@ -4429,16 +4435,16 @@
     <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="224"/>
       <c r="B6" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
@@ -4447,10 +4453,10 @@
     <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="224"/>
       <c r="B7" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="32">
         <v>35</v>
@@ -4465,10 +4471,10 @@
     <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="224"/>
       <c r="B8" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
@@ -4482,16 +4488,16 @@
     <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="225"/>
       <c r="B9" s="146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="146"/>
       <c r="G9" s="146"/>
@@ -4531,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>37</v>
@@ -4551,19 +4557,19 @@
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="227" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="151" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -4572,16 +4578,16 @@
     <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="228"/>
       <c r="B3" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
@@ -4590,16 +4596,16 @@
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="228"/>
       <c r="B4" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
@@ -4608,16 +4614,16 @@
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="228"/>
       <c r="B5" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -4626,10 +4632,10 @@
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="229"/>
       <c r="B6" s="153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="155">
         <v>20</v>
@@ -4646,7 +4652,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>38</v>
@@ -4656,7 +4662,7 @@
         <v>/MS1/</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -4665,7 +4671,7 @@
     <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="191"/>
       <c r="B8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>33</v>
@@ -4675,7 +4681,7 @@
         <v>All</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -4684,7 +4690,7 @@
     <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="191"/>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
@@ -4694,7 +4700,7 @@
         <v>mzML</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
@@ -4703,7 +4709,7 @@
     <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="191"/>
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>86</v>
@@ -4722,10 +4728,10 @@
     <row r="11" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="192"/>
       <c r="B11" s="113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="115" t="str">
         <f>parameters!D15</f>
@@ -4738,19 +4744,19 @@
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="183" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>150</v>
-      </c>
       <c r="D12" s="111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
@@ -4759,10 +4765,10 @@
     <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="184"/>
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="12">
         <v>0.01</v>
@@ -4777,16 +4783,16 @@
     <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="184"/>
       <c r="B14" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="12">
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
@@ -4795,7 +4801,7 @@
     <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="184"/>
       <c r="B15" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>39</v>
@@ -4804,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -4813,7 +4819,7 @@
     <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="184"/>
       <c r="B16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>40</v>
@@ -4831,7 +4837,7 @@
     <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="184"/>
       <c r="B17" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>80</v>
@@ -4849,10 +4855,10 @@
     <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="230"/>
       <c r="B18" s="161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="163">
         <v>30</v>
@@ -4866,19 +4872,19 @@
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="231" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="158" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="157" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="158" t="s">
+      <c r="D19" s="159" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="160" t="s">
         <v>154</v>
-      </c>
-      <c r="D19" s="159" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="160" t="s">
-        <v>155</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
@@ -4887,10 +4893,10 @@
     <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="232"/>
       <c r="B20" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>179</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>180</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="53" t="s">
@@ -4903,16 +4909,16 @@
     <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="232"/>
       <c r="B21" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
@@ -4921,16 +4927,16 @@
     <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="232"/>
       <c r="B22" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
@@ -4939,16 +4945,16 @@
     <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="232"/>
       <c r="B23" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="52">
         <v>50000</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
@@ -4957,10 +4963,10 @@
     <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="233"/>
       <c r="B24" s="165" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="167">
         <v>10</v>
@@ -5095,7 +5101,7 @@
         <v>All</v>
       </c>
       <c r="E3" s="181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -5114,7 +5120,7 @@
         <v>mzML</v>
       </c>
       <c r="E4" s="181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -5133,7 +5139,7 @@
         <v>/peaklists</v>
       </c>
       <c r="E5" s="181" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -5152,7 +5158,7 @@
         <v>/path/to/folder/IDSL.UFA</v>
       </c>
       <c r="E6" s="182" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
@@ -5160,19 +5166,19 @@
     </row>
     <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="234" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="170" t="s">
-        <v>137</v>
-      </c>
       <c r="D7" s="169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="171" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="172"/>
       <c r="G7" s="172"/>
@@ -5181,16 +5187,16 @@
     <row r="8" spans="1:8" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="235"/>
       <c r="B8" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
@@ -5199,16 +5205,16 @@
     <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="235"/>
       <c r="B9" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="42">
         <v>0.1</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
@@ -5217,16 +5223,16 @@
     <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="235"/>
       <c r="B10" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
@@ -5235,40 +5241,40 @@
     <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="235"/>
       <c r="B11" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="H11" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="235"/>
       <c r="B12" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -5277,16 +5283,16 @@
     <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="235"/>
       <c r="B13" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>256</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>257</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -5295,10 +5301,10 @@
     <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="235"/>
       <c r="B14" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="42">
         <v>0.01</v>
@@ -5313,10 +5319,10 @@
     <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="235"/>
       <c r="B15" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="42">
         <v>30</v>
@@ -5331,16 +5337,16 @@
     <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="235"/>
       <c r="B16" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -5349,16 +5355,16 @@
     <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="236"/>
       <c r="B17" s="173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="173" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="176"/>
       <c r="G17" s="176"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="292">
   <si>
     <t>mzML</t>
   </si>
@@ -147,12 +147,6 @@
     <t>MS data location (MS1 level HRMS data)</t>
   </si>
   <si>
-    <t>Maximum NEME (mDa)</t>
-  </si>
-  <si>
-    <t>Minimum PCS (‰)</t>
-  </si>
-  <si>
     <t>PARAM0016</t>
   </si>
   <si>
@@ -523,9 +517,6 @@
   </si>
   <si>
     <t>Mass accuracy (Da)</t>
-  </si>
-  <si>
-    <t>≥ 0.1</t>
   </si>
   <si>
     <t>Genetic algorithm parameters</t>
@@ -1583,13 +1574,43 @@
   </si>
   <si>
     <t>Maximum NEME (mDa) (See equation 5 in the main manuscript)</t>
+  </si>
+  <si>
+    <t>Graphical Guide</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/Peak-Spacing-and-Intensity-Cutoff</t>
+  </si>
+  <si>
+    <r>
+      <t>Minimum RCS (%) = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NDCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/number of scans within 80% of peak height)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,6 +1685,22 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2148,10 +2185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2687,6 +2725,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2724,6 +2783,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2816,6 +2881,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2849,8 +2917,36 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3138,25 +3234,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="86" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -3182,160 +3278,160 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="194" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="97"/>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="195"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="188"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="195"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="188"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="195"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D8, "/", formula_source!D9, ".Rdata")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="195"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188"/>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="195"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="195"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="195"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="189"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="196"/>
       <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="107">
         <v>35</v>
@@ -3347,8 +3443,8 @@
       <c r="G10" s="107"/>
       <c r="H10" s="107"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="190" t="s">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="197" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="101" t="s">
@@ -3358,15 +3454,15 @@
         <v>38</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E11" s="104"/>
       <c r="F11" s="103"/>
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="198"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3374,17 +3470,17 @@
         <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="198"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3395,32 +3491,32 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="191"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="198"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="192"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="199"/>
       <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
@@ -3428,42 +3524,42 @@
         <v>30</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="183" t="s">
-        <v>225</v>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="190" t="s">
+        <v>222</v>
       </c>
       <c r="B16" s="109" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="112" t="s">
         <v>99</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="112" t="s">
-        <v>101</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="111"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="191"/>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="12">
         <v>0.01</v>
@@ -3481,19 +3577,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="191"/>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -3505,19 +3601,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="184"/>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="191"/>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D19" s="12">
         <v>950</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="12">
         <v>950</v>
@@ -3529,159 +3625,159 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="184"/>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="191"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="184"/>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="191"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="184"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="191"/>
       <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E22" s="120" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="119"/>
       <c r="G22" s="119"/>
       <c r="H22" s="119"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="192"/>
       <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="128" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F23" s="127"/>
       <c r="G23" s="127"/>
       <c r="H23" s="129"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="192"/>
       <c r="B24" s="130" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="131"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="186"/>
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="193"/>
       <c r="B25" s="132" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D25" s="134" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E25" s="135" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F25" s="134"/>
       <c r="G25" s="134"/>
       <c r="H25" s="136"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="193" t="s">
-        <v>88</v>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="200" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="122" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D26" s="123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="194"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="201"/>
       <c r="B27" s="88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
     </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="194"/>
+    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="201"/>
       <c r="B28" s="88" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" s="92">
         <v>50</v>
@@ -3693,13 +3789,13 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="194"/>
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="201"/>
       <c r="B29" s="88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D29" s="92">
         <v>20</v>
@@ -3711,25 +3807,25 @@
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="195"/>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="202"/>
       <c r="B30" s="137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C30" s="138" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D30" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F30" s="139"/>
       <c r="G30" s="139"/>
       <c r="H30" s="139"/>
     </row>
-    <row r="31" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A16:A25"/>
@@ -3744,62 +3840,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="79.109375" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="79.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="77" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
-        <v>220</v>
+      <c r="G1" s="75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="227" t="s">
+        <v>217</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="82"/>
-    </row>
-    <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="219"/>
+      <c r="G2" s="183"/>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="228"/>
       <c r="B3" s="68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73">
@@ -3809,16 +3910,17 @@
         <v>1200</v>
       </c>
       <c r="F3" s="81"/>
-    </row>
-    <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="220" t="s">
-        <v>81</v>
+      <c r="G3" s="184"/>
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="229" t="s">
+        <v>79</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="66">
         <v>3</v>
@@ -3827,14 +3929,15 @@
         <v>50</v>
       </c>
       <c r="F4" s="82"/>
-    </row>
-    <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
+      <c r="G4" s="183"/>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="213"/>
       <c r="B5" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="26">
         <v>0</v>
@@ -3843,14 +3946,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="83"/>
-    </row>
-    <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204"/>
+      <c r="G5" s="185"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="213"/>
       <c r="B6" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="26">
         <v>0</v>
@@ -3859,14 +3963,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
+      <c r="G6" s="185"/>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="213"/>
       <c r="B7" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="26">
         <v>0</v>
@@ -3875,14 +3980,15 @@
         <v>0</v>
       </c>
       <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="204"/>
+      <c r="G7" s="185"/>
+    </row>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="213"/>
       <c r="B8" s="177" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -3891,16 +3997,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204"/>
+        <v>283</v>
+      </c>
+      <c r="G8" s="185"/>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="213"/>
       <c r="B9" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -3909,14 +4016,15 @@
         <v>0</v>
       </c>
       <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="204"/>
+      <c r="G9" s="185"/>
+    </row>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="213"/>
       <c r="B10" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -3925,14 +4033,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="83"/>
-    </row>
-    <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
+      <c r="G10" s="185"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="213"/>
       <c r="B11" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -3941,14 +4050,15 @@
         <v>0</v>
       </c>
       <c r="F11" s="83"/>
-    </row>
-    <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
+      <c r="G11" s="185"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="214"/>
       <c r="B12" s="70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="73">
         <v>0</v>
@@ -3957,16 +4067,17 @@
         <v>0</v>
       </c>
       <c r="F12" s="81"/>
-    </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="221" t="s">
-        <v>91</v>
+      <c r="G12" s="184"/>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="230" t="s">
+        <v>89</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="66">
         <v>0</v>
@@ -3975,14 +4086,15 @@
         <v>2</v>
       </c>
       <c r="F13" s="82"/>
-    </row>
-    <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="G13" s="183"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="230"/>
       <c r="B14" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
@@ -3992,14 +4104,15 @@
         <v>112</v>
       </c>
       <c r="F14" s="83"/>
-    </row>
-    <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
+      <c r="G14" s="185"/>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="230"/>
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -4008,14 +4121,15 @@
         <v>0</v>
       </c>
       <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="G15" s="185"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="230"/>
       <c r="B16" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -4024,14 +4138,15 @@
         <v>0</v>
       </c>
       <c r="F16" s="83"/>
-    </row>
-    <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="G16" s="185"/>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="230"/>
       <c r="B17" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="26">
         <v>0</v>
@@ -4040,14 +4155,15 @@
         <v>0</v>
       </c>
       <c r="F17" s="83"/>
-    </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="G17" s="185"/>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="230"/>
       <c r="B18" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -4056,16 +4172,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+        <v>284</v>
+      </c>
+      <c r="G18" s="185"/>
+    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="230"/>
       <c r="B19" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -4074,14 +4191,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="83"/>
-    </row>
-    <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="G19" s="185"/>
+    </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="230"/>
       <c r="B20" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -4090,14 +4208,15 @@
         <v>10</v>
       </c>
       <c r="F20" s="83"/>
-    </row>
-    <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="221"/>
+      <c r="G20" s="185"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="230"/>
       <c r="B21" s="70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="73">
         <v>0</v>
@@ -4106,191 +4225,202 @@
         <v>1</v>
       </c>
       <c r="F21" s="81"/>
-    </row>
-    <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="201" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" s="222" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
+      <c r="G21" s="184"/>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="210" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="231" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
       <c r="E22" s="79" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="202"/>
-      <c r="B23" s="199" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
+        <v>265</v>
+      </c>
+      <c r="G22" s="183"/>
+    </row>
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="211"/>
+      <c r="B23" s="208" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
-      <c r="B24" s="199" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
+        <v>266</v>
+      </c>
+      <c r="G23" s="185"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="211"/>
+      <c r="B24" s="208" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
-      <c r="B25" s="200" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
+        <v>267</v>
+      </c>
+      <c r="G24" s="185"/>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="212"/>
+      <c r="B25" s="209" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="67">
         <v>6</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="204" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="215" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+        <v>282</v>
+      </c>
+      <c r="G25" s="184"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="213" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="224" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="225"/>
+      <c r="D26" s="226"/>
       <c r="E26" s="79" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="204"/>
-      <c r="B27" s="206" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="207"/>
-      <c r="D27" s="208"/>
+        <v>251</v>
+      </c>
+      <c r="G26" s="183"/>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="213"/>
+      <c r="B27" s="215" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="79" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="204"/>
-      <c r="B28" s="206" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="207"/>
-      <c r="D28" s="208"/>
+        <v>264</v>
+      </c>
+      <c r="G27" s="185"/>
+    </row>
+    <row r="28" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="213"/>
+      <c r="B28" s="215" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="204"/>
-      <c r="B29" s="206" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="208"/>
+        <v>209</v>
+      </c>
+      <c r="G28" s="203" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="213"/>
+      <c r="B29" s="215" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204"/>
-      <c r="B30" s="196" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="197"/>
-      <c r="D30" s="198"/>
+        <v>201</v>
+      </c>
+      <c r="G29" s="204"/>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="213"/>
+      <c r="B30" s="205" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
       <c r="E30" s="26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="204"/>
-      <c r="B31" s="209" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="210"/>
-      <c r="D31" s="211"/>
+        <v>253</v>
+      </c>
+      <c r="G30" s="185"/>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="213"/>
+      <c r="B31" s="218" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="219"/>
+      <c r="D31" s="220"/>
       <c r="E31" s="26">
         <v>16</v>
       </c>
       <c r="F31" s="83" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="204"/>
-      <c r="B32" s="196" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
+      <c r="G31" s="185"/>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="213"/>
+      <c r="B32" s="205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="206"/>
+      <c r="D32" s="207"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="F32" s="83"/>
-    </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="205"/>
-      <c r="B33" s="212" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
+      <c r="G32" s="185"/>
+    </row>
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="214"/>
+      <c r="B33" s="221" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="222"/>
+      <c r="D33" s="223"/>
       <c r="E33" s="67" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>194</v>
+      </c>
+      <c r="G33" s="184"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B29:D29"/>
@@ -4298,35 +4428,44 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="75.5546875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="47" style="29" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="29"/>
+    <col min="4" max="4" width="75.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="47" style="29" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -4342,121 +4481,131 @@
       <c r="E1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="145" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="H1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="31" customFormat="1" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="223" t="s">
-        <v>125</v>
+    <row r="2" spans="1:9" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="232" t="s">
+        <v>123</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E2" s="143" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="144"/>
+        <v>250</v>
+      </c>
+      <c r="F2" s="186"/>
       <c r="G2" s="144"/>
       <c r="H2" s="144"/>
-    </row>
-    <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="224"/>
+      <c r="I2" s="144"/>
+    </row>
+    <row r="3" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="233"/>
       <c r="B3" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="247" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="35" t="s">
+    </row>
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="233"/>
+      <c r="B4" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="224"/>
-      <c r="B4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="E4" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="36"/>
+        <v>211</v>
+      </c>
+      <c r="F4" s="235"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="224"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="233"/>
       <c r="B5" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="36"/>
+        <v>253</v>
+      </c>
+      <c r="F5" s="187"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="233"/>
       <c r="B6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>118</v>
-      </c>
       <c r="D6" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="36"/>
+        <v>92</v>
+      </c>
+      <c r="F6" s="188"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="224"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="233"/>
       <c r="B7" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D7" s="32">
         <v>35</v>
@@ -4464,52 +4613,59 @@
       <c r="E7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="188"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="224"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="233"/>
       <c r="B8" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="188"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="225"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="234"/>
       <c r="B9" s="146" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="147" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D9" s="146" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="146"/>
+        <v>194</v>
+      </c>
+      <c r="F9" s="189"/>
       <c r="G9" s="146"/>
       <c r="H9" s="146"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="I9" s="146"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4519,25 +4675,25 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C7:C11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>37</v>
@@ -4555,87 +4711,87 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="227" t="s">
-        <v>185</v>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="237" t="s">
+        <v>182</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="151" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="228"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="238"/>
       <c r="B3" s="62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="228"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="238"/>
       <c r="B4" s="62" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="228"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="238"/>
       <c r="B5" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="229"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="239"/>
       <c r="B6" s="153" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D6" s="155">
         <v>20</v>
@@ -4647,12 +4803,12 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="190" t="s">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="197" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>38</v>
@@ -4662,16 +4818,16 @@
         <v>/MS1/</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="198"/>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>33</v>
@@ -4681,16 +4837,16 @@
         <v>All</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="198"/>
       <c r="B9" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
@@ -4700,38 +4856,38 @@
         <v>mzML</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="198"/>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="192"/>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="199"/>
       <c r="B11" s="113" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D11" s="115" t="str">
         <f>parameters!D15</f>
@@ -4742,33 +4898,33 @@
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="183" t="s">
-        <v>148</v>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="190" t="s">
+        <v>146</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="184"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="191"/>
       <c r="B13" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12">
         <v>0.01</v>
@@ -4780,123 +4936,123 @@
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="184"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="191"/>
       <c r="B14" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="12">
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="184"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="191"/>
       <c r="B15" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="191"/>
       <c r="B16" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="D16" s="12">
         <v>950</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="191"/>
       <c r="B17" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="230"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="240"/>
       <c r="B18" s="161" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="162" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D18" s="163">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E18" s="164" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231" t="s">
-        <v>152</v>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="241" t="s">
+        <v>149</v>
       </c>
       <c r="B19" s="157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E19" s="160" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="232"/>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="242"/>
       <c r="B20" s="50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="53" t="s">
@@ -4906,67 +5062,67 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="232"/>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="242"/>
       <c r="B21" s="50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="232"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="242"/>
       <c r="B22" s="50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="232"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="242"/>
       <c r="B23" s="50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" s="52">
         <v>50000</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="233"/>
+    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="243"/>
       <c r="B24" s="165" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D24" s="167">
         <v>10</v>
@@ -4978,8 +5134,8 @@
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="226"/>
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="236"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
       <c r="D25" s="57"/>
@@ -4988,8 +5144,8 @@
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="226"/>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="236"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="61"/>
@@ -4998,8 +5154,8 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="226"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="236"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
       <c r="D27" s="57"/>
@@ -5023,27 +5179,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="76.44140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="66.88671875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="47" style="29" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="29"/>
+    <col min="4" max="4" width="76.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="47" style="29" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
@@ -5059,18 +5216,21 @@
       <c r="E1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="145" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="H1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+    <row r="2" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="197" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="101" t="s">
@@ -5084,12 +5244,13 @@
         <v>/MS1/</v>
       </c>
       <c r="E2" s="181"/>
-      <c r="F2" s="103"/>
+      <c r="F2" s="250"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191"/>
+      <c r="I2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="198"/>
       <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
@@ -5101,14 +5262,15 @@
         <v>All</v>
       </c>
       <c r="E3" s="181" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="F3" s="250"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="198"/>
       <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
@@ -5120,33 +5282,35 @@
         <v>mzML</v>
       </c>
       <c r="E4" s="181" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>235</v>
+      </c>
+      <c r="F4" s="250"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="191"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="198"/>
       <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="179" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="101" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
       <c r="E5" s="181" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="F5" s="250"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="192"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="199"/>
       <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
@@ -5158,153 +5322,163 @@
         <v>/path/to/folder/IDSL.UFA</v>
       </c>
       <c r="E6" s="182" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="115"/>
+        <v>94</v>
+      </c>
+      <c r="F6" s="251"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
-    </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="234" t="s">
-        <v>135</v>
+      <c r="I6" s="115"/>
+    </row>
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="244" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="170" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="171" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="172"/>
+        <v>199</v>
+      </c>
+      <c r="F7" s="252"/>
       <c r="G7" s="172"/>
       <c r="H7" s="172"/>
-    </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="I7" s="172"/>
+    </row>
+    <row r="8" spans="1:9" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="245"/>
       <c r="B8" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="45"/>
+        <v>249</v>
+      </c>
+      <c r="F8" s="253"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="245"/>
       <c r="B9" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="42">
         <v>0.1</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="45"/>
+        <v>200</v>
+      </c>
+      <c r="F9" s="253"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="245"/>
       <c r="B10" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="45"/>
+        <v>92</v>
+      </c>
+      <c r="F10" s="253"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="245"/>
       <c r="B11" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D11" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="248" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="235"/>
+    </row>
+    <row r="12" spans="1:9" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="245"/>
       <c r="B12" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="48"/>
+        <v>211</v>
+      </c>
+      <c r="F12" s="249"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="235"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="245"/>
       <c r="B13" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="48"/>
+        <v>253</v>
+      </c>
+      <c r="F13" s="253"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="235"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="245"/>
       <c r="B14" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="42">
         <v>0.01</v>
@@ -5312,17 +5486,18 @@
       <c r="E14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="254"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="235"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="245"/>
       <c r="B15" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="42">
         <v>30</v>
@@ -5330,53 +5505,60 @@
       <c r="E15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="254"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="235"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="245"/>
       <c r="B16" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="48"/>
+        <v>109</v>
+      </c>
+      <c r="F16" s="254"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="236"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="246"/>
       <c r="B17" s="173" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="173" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="176"/>
+        <v>109</v>
+      </c>
+      <c r="F17" s="255"/>
       <c r="G17" s="176"/>
       <c r="H17" s="176"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="I17" s="176"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="293">
   <si>
     <t>mzML</t>
   </si>
@@ -1364,28 +1364,6 @@
   </si>
   <si>
     <t>You may download the PubChem library from https://zenodo.org/record/7065107/files/PubChem_MolecularFormula_Freq_Database.Rdata?download=1</t>
-  </si>
-  <si>
-    <r>
-      <t>"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not required)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1604,6 +1582,31 @@
       </rPr>
       <t>/number of scans within 80% of peak height)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029) (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is not required)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://rdocumentation.org/packages/IDSL.UFA/versions/1.6/topics/isotopic_profile_calculator</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2737,15 +2740,39 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2785,11 +2812,53 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2800,78 +2869,36 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2881,6 +2908,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2917,31 +2947,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3234,9 +3243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3279,7 +3288,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="202" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="94" t="s">
@@ -3299,7 +3308,7 @@
       <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="195"/>
+      <c r="A3" s="203"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -3317,7 +3326,7 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
+      <c r="A4" s="203"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
@@ -3335,7 +3344,7 @@
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3354,7 +3363,7 @@
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
+      <c r="A6" s="203"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -3372,7 +3381,7 @@
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
+      <c r="A7" s="203"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3383,14 +3392,14 @@
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3417,7 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3435,7 @@
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
@@ -3444,7 +3453,7 @@
       <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="205" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="101" t="s">
@@ -3462,7 +3471,7 @@
       <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="198"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3489,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="198"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3507,7 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="198"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3509,14 +3518,14 @@
         <v>226</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="199"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
@@ -3534,7 +3543,7 @@
       <c r="H15" s="115"/>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="190" t="s">
+      <c r="A16" s="198" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="109" t="s">
@@ -3554,7 +3563,7 @@
       <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -3578,12 +3587,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
+      <c r="A18" s="199"/>
       <c r="B18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -3602,12 +3611,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D19" s="12">
         <v>950</v>
@@ -3626,7 +3635,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3637,14 +3646,14 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3655,19 +3664,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="119" t="s">
         <v>221</v>
@@ -3680,7 +3689,7 @@
       <c r="H22" s="119"/>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
+      <c r="A23" s="200"/>
       <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3707,7 @@
       <c r="H23" s="129"/>
     </row>
     <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="192"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="130" t="s">
         <v>96</v>
       </c>
@@ -3716,7 +3725,7 @@
       <c r="H24" s="131"/>
     </row>
     <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="193"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="132" t="s">
         <v>106</v>
       </c>
@@ -3734,14 +3743,14 @@
       <c r="H25" s="136"/>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="208" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="121" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" s="123" t="s">
         <v>228</v>
@@ -3754,12 +3763,12 @@
       <c r="H26" s="123"/>
     </row>
     <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
+      <c r="A27" s="209"/>
       <c r="B27" s="88" t="s">
         <v>124</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D27" s="90" t="s">
         <v>229</v>
@@ -3772,7 +3781,7 @@
       <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
+      <c r="A28" s="209"/>
       <c r="B28" s="88" t="s">
         <v>156</v>
       </c>
@@ -3790,7 +3799,7 @@
       <c r="H28" s="93"/>
     </row>
     <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="201"/>
+      <c r="A29" s="209"/>
       <c r="B29" s="88" t="s">
         <v>193</v>
       </c>
@@ -3808,7 +3817,7 @@
       <c r="H29" s="93"/>
     </row>
     <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="137" t="s">
         <v>218</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F30" s="139"/>
       <c r="G30" s="139"/>
@@ -3842,9 +3851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3854,8 +3863,8 @@
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="79.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
@@ -3879,11 +3888,11 @@
         <v>36</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="211" t="s">
         <v>217</v>
       </c>
       <c r="B2" s="69"/>
@@ -3898,7 +3907,7 @@
       <c r="G2" s="183"/>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="228"/>
+      <c r="A3" s="212"/>
       <c r="B3" s="68" t="s">
         <v>102</v>
       </c>
@@ -3913,7 +3922,7 @@
       <c r="G3" s="184"/>
     </row>
     <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="213" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -3932,7 +3941,7 @@
       <c r="G4" s="183"/>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="213"/>
+      <c r="A5" s="214"/>
       <c r="B5" s="24" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +3958,7 @@
       <c r="G5" s="185"/>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="213"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -3966,7 +3975,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="213"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="24" t="s">
         <v>49</v>
       </c>
@@ -3983,7 +3992,7 @@
       <c r="G7" s="185"/>
     </row>
     <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="213"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="177" t="s">
         <v>261</v>
       </c>
@@ -3997,12 +4006,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G8" s="185"/>
     </row>
     <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="213"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4019,7 +4028,7 @@
       <c r="G9" s="185"/>
     </row>
     <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="213"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4036,7 +4045,7 @@
       <c r="G10" s="185"/>
     </row>
     <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="213"/>
+      <c r="A11" s="214"/>
       <c r="B11" s="24" t="s">
         <v>55</v>
       </c>
@@ -4053,7 +4062,7 @@
       <c r="G11" s="185"/>
     </row>
     <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="70" t="s">
         <v>57</v>
       </c>
@@ -4070,7 +4079,7 @@
       <c r="G12" s="184"/>
     </row>
     <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="230" t="s">
+      <c r="A13" s="219" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="71" t="s">
@@ -4089,7 +4098,7 @@
       <c r="G13" s="183"/>
     </row>
     <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="230"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="24" t="s">
         <v>63</v>
       </c>
@@ -4107,7 +4116,7 @@
       <c r="G14" s="185"/>
     </row>
     <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="230"/>
+      <c r="A15" s="219"/>
       <c r="B15" s="24" t="s">
         <v>65</v>
       </c>
@@ -4124,7 +4133,7 @@
       <c r="G15" s="185"/>
     </row>
     <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="230"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="24" t="s">
         <v>67</v>
       </c>
@@ -4141,7 +4150,7 @@
       <c r="G16" s="185"/>
     </row>
     <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="230"/>
+      <c r="A17" s="219"/>
       <c r="B17" s="24" t="s">
         <v>69</v>
       </c>
@@ -4158,7 +4167,7 @@
       <c r="G17" s="185"/>
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="230"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="24" t="s">
         <v>262</v>
       </c>
@@ -4172,12 +4181,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" s="185"/>
     </row>
     <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="230"/>
+      <c r="A19" s="219"/>
       <c r="B19" s="24" t="s">
         <v>71</v>
       </c>
@@ -4194,7 +4203,7 @@
       <c r="G19" s="185"/>
     </row>
     <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="230"/>
+      <c r="A20" s="219"/>
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -4211,7 +4220,7 @@
       <c r="G20" s="185"/>
     </row>
     <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="70" t="s">
         <v>75</v>
       </c>
@@ -4228,14 +4237,14 @@
       <c r="G21" s="184"/>
     </row>
     <row r="22" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="210" t="s">
+      <c r="A22" s="221" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="220" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="79" t="b">
         <v>1</v>
       </c>
@@ -4245,12 +4254,12 @@
       <c r="G22" s="183"/>
     </row>
     <row r="23" spans="1:7" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="211"/>
-      <c r="B23" s="208" t="s">
+      <c r="A23" s="222"/>
+      <c r="B23" s="238" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="238"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4260,12 +4269,12 @@
       <c r="G23" s="185"/>
     </row>
     <row r="24" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="211"/>
-      <c r="B24" s="208" t="s">
+      <c r="A24" s="222"/>
+      <c r="B24" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
       <c r="E24" s="26" t="s">
         <v>212</v>
       </c>
@@ -4275,29 +4284,29 @@
       <c r="G24" s="185"/>
     </row>
     <row r="25" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="212"/>
-      <c r="B25" s="209" t="s">
+      <c r="A25" s="223"/>
+      <c r="B25" s="239" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
       <c r="E25" s="67">
         <v>6</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G25" s="184"/>
     </row>
     <row r="26" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="233" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="235"/>
       <c r="E26" s="79" t="b">
         <v>1</v>
       </c>
@@ -4307,105 +4316,107 @@
       <c r="G26" s="183"/>
     </row>
     <row r="27" spans="1:7" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="213"/>
-      <c r="B27" s="215" t="s">
+      <c r="A27" s="214"/>
+      <c r="B27" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
       <c r="E27" s="79" t="s">
         <v>268</v>
       </c>
       <c r="F27" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="185"/>
+      <c r="G27" s="196"/>
     </row>
     <row r="28" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="213"/>
-      <c r="B28" s="215" t="s">
+      <c r="A28" s="214"/>
+      <c r="B28" s="216" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
       <c r="E28" s="27" t="s">
         <v>213</v>
       </c>
       <c r="F28" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="203" t="s">
-        <v>290</v>
+      <c r="G28" s="236" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="213"/>
-      <c r="B29" s="215" t="s">
+      <c r="A29" s="214"/>
+      <c r="B29" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="218"/>
       <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="204"/>
+      <c r="G29" s="237"/>
     </row>
     <row r="30" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="213"/>
-      <c r="B30" s="205" t="s">
+      <c r="A30" s="214"/>
+      <c r="B30" s="227" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="229"/>
       <c r="E30" s="26" t="s">
         <v>252</v>
       </c>
       <c r="F30" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="G30" s="185"/>
+      <c r="G30" s="195" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="213"/>
-      <c r="B31" s="218" t="s">
+      <c r="A31" s="214"/>
+      <c r="B31" s="224" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="219"/>
-      <c r="D31" s="220"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="226"/>
       <c r="E31" s="26">
         <v>16</v>
       </c>
       <c r="F31" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="185"/>
+      <c r="G31" s="196"/>
     </row>
     <row r="32" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="213"/>
-      <c r="B32" s="205" t="s">
+      <c r="A32" s="214"/>
+      <c r="B32" s="227" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="206"/>
-      <c r="D32" s="207"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="F32" s="83"/>
-      <c r="G32" s="185"/>
+      <c r="G32" s="196"/>
     </row>
     <row r="33" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="214"/>
-      <c r="B33" s="221" t="s">
+      <c r="A33" s="215"/>
+      <c r="B33" s="230" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="222"/>
-      <c r="D33" s="223"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="232"/>
       <c r="E33" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F33" s="81" t="s">
         <v>194</v>
@@ -4415,6 +4426,11 @@
     <row r="34" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="B28:D28"/>
@@ -4428,17 +4444,13 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G28" r:id="rId1"/>
+    <hyperlink ref="G30" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4448,7 +4460,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4470,7 @@
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
     <col min="4" max="4" width="75.5703125" style="29" customWidth="1"/>
     <col min="5" max="5" width="65.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="29" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" style="29" customWidth="1"/>
     <col min="8" max="8" width="47" style="29" customWidth="1"/>
     <col min="9" max="9" width="49.28515625" style="29" customWidth="1"/>
@@ -4482,7 +4494,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G1" s="100" t="s">
         <v>5</v>
@@ -4495,7 +4507,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="240" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="141" t="s">
@@ -4516,7 +4528,7 @@
       <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="233"/>
+      <c r="A3" s="241"/>
       <c r="B3" s="32" t="s">
         <v>111</v>
       </c>
@@ -4529,8 +4541,8 @@
       <c r="E3" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="247" t="s">
-        <v>290</v>
+      <c r="F3" s="243" t="s">
+        <v>289</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>118</v>
@@ -4543,7 +4555,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="233"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="32" t="s">
         <v>112</v>
       </c>
@@ -4556,13 +4568,13 @@
       <c r="E4" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="235"/>
+      <c r="F4" s="244"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:9" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="241"/>
       <c r="B5" s="32" t="s">
         <v>113</v>
       </c>
@@ -4575,13 +4587,15 @@
       <c r="E5" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="187"/>
+      <c r="F5" s="197" t="s">
+        <v>292</v>
+      </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="233"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="32" t="s">
         <v>114</v>
       </c>
@@ -4594,13 +4608,13 @@
       <c r="E6" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="188"/>
+      <c r="F6" s="187"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="233"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="32" t="s">
         <v>115</v>
       </c>
@@ -4613,13 +4627,13 @@
       <c r="E7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="188"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="233"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="32" t="s">
         <v>122</v>
       </c>
@@ -4631,13 +4645,13 @@
         <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="188"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="146" t="s">
         <v>224</v>
       </c>
@@ -4650,7 +4664,7 @@
       <c r="E9" s="148" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="189"/>
+      <c r="F9" s="188"/>
       <c r="G9" s="146"/>
       <c r="H9" s="146"/>
       <c r="I9" s="146"/>
@@ -4663,9 +4677,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4712,7 +4727,7 @@
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="246" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -4732,7 +4747,7 @@
       <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="238"/>
+      <c r="A3" s="247"/>
       <c r="B3" s="62" t="s">
         <v>158</v>
       </c>
@@ -4750,7 +4765,7 @@
       <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="238"/>
+      <c r="A4" s="247"/>
       <c r="B4" s="62" t="s">
         <v>159</v>
       </c>
@@ -4768,7 +4783,7 @@
       <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="238"/>
+      <c r="A5" s="247"/>
       <c r="B5" s="62" t="s">
         <v>160</v>
       </c>
@@ -4786,7 +4801,7 @@
       <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="239"/>
+      <c r="A6" s="248"/>
       <c r="B6" s="153" t="s">
         <v>161</v>
       </c>
@@ -4804,7 +4819,7 @@
       <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="205" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="101" t="s">
@@ -4825,7 +4840,7 @@
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="5" t="s">
         <v>163</v>
       </c>
@@ -4844,7 +4859,7 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="198"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="5" t="s">
         <v>164</v>
       </c>
@@ -4863,7 +4878,7 @@
       <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="198"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="5" t="s">
         <v>165</v>
       </c>
@@ -4882,7 +4897,7 @@
       <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="199"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="113" t="s">
         <v>166</v>
       </c>
@@ -4899,7 +4914,7 @@
       <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="198" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="111" t="s">
@@ -4919,7 +4934,7 @@
       <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="6" t="s">
         <v>168</v>
       </c>
@@ -4937,7 +4952,7 @@
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="6" t="s">
         <v>169</v>
       </c>
@@ -4955,12 +4970,12 @@
       <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
@@ -4973,12 +4988,12 @@
       <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="191"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="12">
         <v>950</v>
@@ -4991,7 +5006,7 @@
       <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="6" t="s">
         <v>172</v>
       </c>
@@ -5002,32 +5017,32 @@
         <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="240"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="161" t="s">
         <v>173</v>
       </c>
       <c r="C18" s="162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="163">
         <v>5</v>
       </c>
       <c r="E18" s="164" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="241" t="s">
+      <c r="A19" s="250" t="s">
         <v>149</v>
       </c>
       <c r="B19" s="157" t="s">
@@ -5037,7 +5052,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="160" t="s">
         <v>151</v>
@@ -5047,7 +5062,7 @@
       <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="242"/>
+      <c r="A20" s="251"/>
       <c r="B20" s="50" t="s">
         <v>175</v>
       </c>
@@ -5063,12 +5078,12 @@
       <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="242"/>
+      <c r="A21" s="251"/>
       <c r="B21" s="50" t="s">
         <v>177</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>220</v>
@@ -5081,12 +5096,12 @@
       <c r="H21" s="57"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="242"/>
+      <c r="A22" s="251"/>
       <c r="B22" s="50" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>223</v>
@@ -5099,7 +5114,7 @@
       <c r="H22" s="57"/>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="242"/>
+      <c r="A23" s="251"/>
       <c r="B23" s="50" t="s">
         <v>179</v>
       </c>
@@ -5117,7 +5132,7 @@
       <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="243"/>
+      <c r="A24" s="252"/>
       <c r="B24" s="165" t="s">
         <v>180</v>
       </c>
@@ -5135,7 +5150,7 @@
       <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="236"/>
+      <c r="A25" s="245"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
       <c r="D25" s="57"/>
@@ -5145,7 +5160,7 @@
       <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="236"/>
+      <c r="A26" s="245"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="61"/>
@@ -5155,7 +5170,7 @@
       <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="236"/>
+      <c r="A27" s="245"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
       <c r="D27" s="57"/>
@@ -5217,7 +5232,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G1" s="100" t="s">
         <v>5</v>
@@ -5230,7 +5245,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="205" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="101" t="s">
@@ -5244,13 +5259,13 @@
         <v>/MS1/</v>
       </c>
       <c r="E2" s="181"/>
-      <c r="F2" s="250"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
       <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
@@ -5264,13 +5279,13 @@
       <c r="E3" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="250"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
@@ -5284,13 +5299,13 @@
       <c r="E4" s="181" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="250"/>
+      <c r="F4" s="189"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
@@ -5302,15 +5317,15 @@
         <v>/peaklists</v>
       </c>
       <c r="E5" s="181" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="250"/>
+        <v>278</v>
+      </c>
+      <c r="F5" s="189"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="199"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
@@ -5324,13 +5339,13 @@
       <c r="E6" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="251"/>
+      <c r="F6" s="190"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
       <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="253" t="s">
         <v>133</v>
       </c>
       <c r="B7" s="169" t="s">
@@ -5345,13 +5360,13 @@
       <c r="E7" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="172"/>
       <c r="H7" s="172"/>
       <c r="I7" s="172"/>
     </row>
     <row r="8" spans="1:9" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="245"/>
+      <c r="A8" s="254"/>
       <c r="B8" s="42" t="s">
         <v>126</v>
       </c>
@@ -5364,13 +5379,13 @@
       <c r="E8" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="253"/>
+      <c r="F8" s="192"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="245"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="42" t="s">
         <v>127</v>
       </c>
@@ -5383,13 +5398,13 @@
       <c r="E9" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="253"/>
+      <c r="F9" s="192"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="245"/>
+      <c r="A10" s="254"/>
       <c r="B10" s="42" t="s">
         <v>128</v>
       </c>
@@ -5402,13 +5417,13 @@
       <c r="E10" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="253"/>
+      <c r="F10" s="192"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245"/>
+      <c r="A11" s="254"/>
       <c r="B11" s="42" t="s">
         <v>129</v>
       </c>
@@ -5421,8 +5436,8 @@
       <c r="E11" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="248" t="s">
-        <v>290</v>
+      <c r="F11" s="256" t="s">
+        <v>289</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>118</v>
@@ -5435,7 +5450,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="245"/>
+      <c r="A12" s="254"/>
       <c r="B12" s="42" t="s">
         <v>130</v>
       </c>
@@ -5448,13 +5463,13 @@
       <c r="E12" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="249"/>
+      <c r="F12" s="257"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
+      <c r="A13" s="254"/>
       <c r="B13" s="42" t="s">
         <v>131</v>
       </c>
@@ -5467,13 +5482,13 @@
       <c r="E13" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="253"/>
+      <c r="F13" s="192"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
+      <c r="A14" s="254"/>
       <c r="B14" s="42" t="s">
         <v>136</v>
       </c>
@@ -5486,13 +5501,13 @@
       <c r="E14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="254"/>
+      <c r="F14" s="193"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="245"/>
+      <c r="A15" s="254"/>
       <c r="B15" s="42" t="s">
         <v>137</v>
       </c>
@@ -5505,13 +5520,13 @@
       <c r="E15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="254"/>
+      <c r="F15" s="193"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
+      <c r="A16" s="254"/>
       <c r="B16" s="42" t="s">
         <v>140</v>
       </c>
@@ -5524,13 +5539,13 @@
       <c r="E16" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="254"/>
+      <c r="F16" s="193"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
+      <c r="A17" s="255"/>
       <c r="B17" s="173" t="s">
         <v>231</v>
       </c>
@@ -5543,7 +5558,7 @@
       <c r="E17" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="255"/>
+      <c r="F17" s="194"/>
       <c r="G17" s="176"/>
       <c r="H17" s="176"/>
       <c r="I17" s="176"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
   <si>
     <t>mzML</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Global parameters (required)</t>
   </si>
   <si>
-    <t>Output location (MS1 processed data)</t>
-  </si>
-  <si>
     <t>Input HRMS data format</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Parameter ID</t>
   </si>
   <si>
-    <t>MS data location (MS1 level HRMS data)</t>
-  </si>
-  <si>
     <t>PARAM0016</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>Ionization pathways to acquire molecular formulas from the library</t>
   </si>
   <si>
-    <t>Peaklist data location</t>
-  </si>
-  <si>
     <t>IDSL.IPA peaklists must be in *.Rdata format</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>Sample Mode</t>
   </si>
   <si>
-    <t>Choose "Sample Mode" or "Peak Mode"</t>
-  </si>
-  <si>
     <t>User input 1</t>
   </si>
   <si>
@@ -624,9 +612,6 @@
     <t>Use only HRMS files with reference standard compounds</t>
   </si>
   <si>
-    <t>Output location</t>
-  </si>
-  <si>
     <t>This file may be derived from PARAM0004 parameter in the 'parameters' tab</t>
   </si>
   <si>
@@ -816,15 +801,9 @@
     <t>/PubChem_MolecularFormula_Freq_Database.Rdata</t>
   </si>
   <si>
-    <t>/peak_alignment/peak_Xcol.Rdata</t>
-  </si>
-  <si>
     <t>/peak_alignment/peak_R13C.Rdata</t>
   </si>
   <si>
-    <t>/IPDB_MTBLS1684.Rdata</t>
-  </si>
-  <si>
     <t>SA0011</t>
   </si>
   <si>
@@ -867,9 +846,6 @@
     <t>/.csv</t>
   </si>
   <si>
-    <t>/MS1/</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
     </r>
@@ -1184,65 +1160,115 @@
     <t>Number of the tabulated candidate molecular formulas after aggregating molecular formulas on the aligned table</t>
   </si>
   <si>
-    <r>
-      <t>This file is usually named '</t>
+    <t>R variable name</t>
+  </si>
+  <si>
+    <t>Rule 1 (C/N chemical space rule (c/2-n-1) ≤ (h+cl+br+f+i) ≤ (2c+3n+6))</t>
+  </si>
+  <si>
+    <t>Rule 2 (Extended SENIOR rule)</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl))</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl + F + I))</t>
+  </si>
+  <si>
+    <t>Rule 4 (Maximum number of elements rule)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> elements.</t>
+    </r>
+  </si>
+  <si>
+    <t>Default = TRUE, `TRUE` or `FALSE`</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default = TRUE, `TRUE` or `FALSE`. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>extended SENIOR rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_Xcol.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in the '</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- and </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_alignment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' folder of the IDSL.IPA pipeline</t>
-    </r>
-  </si>
-  <si>
-    <t>R variable name</t>
-  </si>
-  <si>
-    <t>Rule 1 (C/N chemical space rule (c/2-n-1) ≤ (h+cl+br+f+i) ≤ (2c+3n+6))</t>
-  </si>
-  <si>
-    <t>Rule 2 (Extended SENIOR rule)</t>
-  </si>
-  <si>
-    <t>Rule 3 (Σ(Br + Cl))</t>
-  </si>
-  <si>
-    <t>Rule 3 (Σ(Br + Cl + F + I))</t>
-  </si>
-  <si>
-    <t>Rule 4 (Maximum number of elements rule)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using </t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- valence shells.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case 'TRUE' is selected for the </t>
     </r>
     <r>
       <rPr>
@@ -1252,7 +1278,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ALL</t>
+      <t>Rule 2 (Extended SENIOR rule)</t>
     </r>
     <r>
       <rPr>
@@ -1261,95 +1287,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> elements.</t>
-    </r>
-  </si>
-  <si>
-    <t>Default = TRUE, `TRUE` or `FALSE`</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default = TRUE, `TRUE` or `FALSE`. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>extended SENIOR rule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- valence shells.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case 'TRUE' is selected for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rule 2 (Extended SENIOR rule)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -1358,9 +1295,6 @@
   </si>
   <si>
     <t>Molecular formula prioritization rules</t>
-  </si>
-  <si>
-    <t>/path/to/folder/IDSL.UFA</t>
   </si>
   <si>
     <t>You may download the PubChem library from https://zenodo.org/record/7065107/files/PubChem_MolecularFormula_Freq_Database.Rdata?download=1</t>
@@ -1607,6 +1541,63 @@
   </si>
   <si>
     <t>https://rdocumentation.org/packages/IDSL.UFA/versions/1.6/topics/isotopic_profile_calculator</t>
+  </si>
+  <si>
+    <t>/path/to/folder//MS1</t>
+  </si>
+  <si>
+    <t>Select "Sample Mode" or "Peak Mode"</t>
+  </si>
+  <si>
+    <t>MS data location address (MS1 level HRMS data)</t>
+  </si>
+  <si>
+    <t>Output location address (MS1 processed data)</t>
+  </si>
+  <si>
+    <t>Peaklist data location address</t>
+  </si>
+  <si>
+    <t>/peak_alignment/peak_Xcol.Rdata</t>
+  </si>
+  <si>
+    <r>
+      <t>This file is usually named '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_Xcol.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_alignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' folder of the IDSL.IPA pipeline</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3243,39 +3234,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="86" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="100" t="s">
         <v>5</v>
@@ -3287,7 +3278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="202" t="s">
         <v>29</v>
       </c>
@@ -3295,280 +3286,281 @@
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="97"/>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="203"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="203"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D8, "/", formula_source!D9, ".Rdata")</f>
-        <v>/path/to/folder/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="203"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="203"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="203"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="203"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="204"/>
       <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D10" s="107">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="107"/>
       <c r="G10" s="107"/>
       <c r="H10" s="107"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="E11" s="104"/>
       <c r="F11" s="103"/>
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="206"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="206"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="207"/>
       <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="115" t="s">
-        <v>270</v>
+        <v>286</v>
+      </c>
+      <c r="D15" s="115" t="str">
+        <f>CONCATENATE(D11, "/IDSL.UFA")</f>
+        <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="198" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B16" s="109" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E16" s="112" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="111"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="199"/>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="12">
         <v>0.01</v>
@@ -3586,19 +3578,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="199"/>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -3610,19 +3602,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="199"/>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D19" s="12">
         <v>950</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="12">
         <v>950</v>
@@ -3634,159 +3626,159 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="199"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="199"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="199"/>
       <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E22" s="120" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="119"/>
       <c r="G22" s="119"/>
       <c r="H22" s="119"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="200"/>
       <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="128" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F23" s="127"/>
       <c r="G23" s="127"/>
       <c r="H23" s="129"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="200"/>
       <c r="B24" s="130" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="131"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="201"/>
       <c r="B25" s="132" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D25" s="134" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E25" s="135" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F25" s="134"/>
       <c r="G25" s="134"/>
       <c r="H25" s="136"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="208" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="121" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="122" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D26" s="123" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="209"/>
       <c r="B27" s="88" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
     </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="209"/>
       <c r="B28" s="88" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D28" s="92">
         <v>50</v>
@@ -3798,13 +3790,13 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="209"/>
       <c r="B29" s="88" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D29" s="92">
         <v>20</v>
@@ -3816,25 +3808,25 @@
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="210"/>
       <c r="B30" s="137" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C30" s="138" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D30" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F30" s="139"/>
       <c r="G30" s="139"/>
       <c r="H30" s="139"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A16:A25"/>
@@ -3851,65 +3843,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="211" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="82"/>
       <c r="G2" s="183"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="212"/>
       <c r="B3" s="68" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73">
@@ -3921,15 +3913,15 @@
       <c r="F3" s="81"/>
       <c r="G3" s="184"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="66">
         <v>3</v>
@@ -3940,13 +3932,13 @@
       <c r="F4" s="82"/>
       <c r="G4" s="183"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="214"/>
       <c r="B5" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="26">
         <v>0</v>
@@ -3957,13 +3949,13 @@
       <c r="F5" s="83"/>
       <c r="G5" s="185"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="214"/>
       <c r="B6" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="26">
         <v>0</v>
@@ -3974,13 +3966,13 @@
       <c r="F6" s="83"/>
       <c r="G6" s="185"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="214"/>
       <c r="B7" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="26">
         <v>0</v>
@@ -3991,13 +3983,13 @@
       <c r="F7" s="83"/>
       <c r="G7" s="185"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="214"/>
       <c r="B8" s="177" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -4006,17 +3998,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G8" s="185"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="214"/>
       <c r="B9" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -4027,13 +4019,13 @@
       <c r="F9" s="83"/>
       <c r="G9" s="185"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="214"/>
       <c r="B10" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -4044,13 +4036,13 @@
       <c r="F10" s="83"/>
       <c r="G10" s="185"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="214"/>
       <c r="B11" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -4061,13 +4053,13 @@
       <c r="F11" s="83"/>
       <c r="G11" s="185"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="215"/>
       <c r="B12" s="70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="73">
         <v>0</v>
@@ -4078,15 +4070,15 @@
       <c r="F12" s="81"/>
       <c r="G12" s="184"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="219" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="66">
         <v>0</v>
@@ -4097,13 +4089,13 @@
       <c r="F13" s="82"/>
       <c r="G13" s="183"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="219"/>
       <c r="B14" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
@@ -4115,13 +4107,13 @@
       <c r="F14" s="83"/>
       <c r="G14" s="185"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="219"/>
       <c r="B15" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -4132,13 +4124,13 @@
       <c r="F15" s="83"/>
       <c r="G15" s="185"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="219"/>
       <c r="B16" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -4149,13 +4141,13 @@
       <c r="F16" s="83"/>
       <c r="G16" s="185"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="219"/>
       <c r="B17" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="26">
         <v>0</v>
@@ -4166,13 +4158,13 @@
       <c r="F17" s="83"/>
       <c r="G17" s="185"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
       <c r="B18" s="24" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -4181,17 +4173,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G18" s="185"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="219"/>
       <c r="B19" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -4202,13 +4194,13 @@
       <c r="F19" s="83"/>
       <c r="G19" s="185"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="219"/>
       <c r="B20" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -4219,13 +4211,13 @@
       <c r="F20" s="83"/>
       <c r="G20" s="185"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="219"/>
       <c r="B21" s="70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="73">
         <v>0</v>
@@ -4236,12 +4228,12 @@
       <c r="F21" s="81"/>
       <c r="G21" s="184"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="221" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B22" s="220" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C22" s="220"/>
       <c r="D22" s="220"/>
@@ -4249,14 +4241,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G22" s="183"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="222"/>
       <c r="B23" s="238" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C23" s="238"/>
       <c r="D23" s="238"/>
@@ -4264,29 +4256,29 @@
         <v>1</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G23" s="185"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="222"/>
       <c r="B24" s="238" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C24" s="238"/>
       <c r="D24" s="238"/>
       <c r="E24" s="26" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G24" s="185"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="223"/>
       <c r="B25" s="239" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C25" s="239"/>
       <c r="D25" s="239"/>
@@ -4294,16 +4286,16 @@
         <v>6</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G25" s="184"/>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="214" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B26" s="233" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="234"/>
       <c r="D26" s="235"/>
@@ -4311,46 +4303,46 @@
         <v>1</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G26" s="183"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="214"/>
       <c r="B27" s="216" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="217"/>
       <c r="D27" s="218"/>
       <c r="E27" s="79" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G27" s="196"/>
     </row>
-    <row r="28" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="214"/>
       <c r="B28" s="216" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C28" s="217"/>
       <c r="D28" s="218"/>
       <c r="E28" s="27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G28" s="236" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="214"/>
       <c r="B29" s="216" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C29" s="217"/>
       <c r="D29" s="218"/>
@@ -4358,72 +4350,72 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G29" s="237"/>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="214"/>
       <c r="B30" s="227" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C30" s="228"/>
       <c r="D30" s="229"/>
       <c r="E30" s="26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G30" s="195" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="214"/>
       <c r="B31" s="224" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C31" s="225"/>
       <c r="D31" s="226"/>
       <c r="E31" s="26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="196"/>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="214"/>
       <c r="B32" s="227" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C32" s="228"/>
       <c r="D32" s="229"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
-        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="F32" s="83"/>
       <c r="G32" s="196"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="215"/>
       <c r="B33" s="230" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C33" s="231"/>
       <c r="D33" s="232"/>
       <c r="E33" s="67" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G33" s="184"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="G28:G29"/>
@@ -4460,41 +4452,41 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="75.5546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="29" customWidth="1"/>
     <col min="8" max="8" width="47" style="29" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="9" max="9" width="49.33203125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="145" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G1" s="100" t="s">
         <v>5</v>
@@ -4506,143 +4498,143 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="31" customFormat="1" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="240" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E2" s="143" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F2" s="186"/>
       <c r="G2" s="144"/>
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
     </row>
-    <row r="3" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="241"/>
       <c r="B3" s="32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="243" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="241"/>
       <c r="B4" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F4" s="244"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:9" s="31" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="241"/>
       <c r="B5" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F5" s="197" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="241"/>
       <c r="B6" s="32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="187"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="241"/>
       <c r="B7" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7" s="32">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="187"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="241"/>
       <c r="B8" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
-        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="187"/>
@@ -4650,26 +4642,26 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="242"/>
       <c r="B9" s="146" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C9" s="147" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D9" s="146" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="188"/>
       <c r="G9" s="146"/>
       <c r="H9" s="146"/>
       <c r="I9" s="146"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
@@ -4690,256 +4682,258 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="246" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D2" s="151" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="247"/>
       <c r="B3" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>230</v>
+        <v>139</v>
+      </c>
+      <c r="D3" s="64" t="str">
+        <f>parameters!D5</f>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="247"/>
       <c r="B4" s="62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="247"/>
       <c r="B5" s="62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="248"/>
       <c r="B6" s="153" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D6" s="155">
-        <v>20</v>
+        <f>parameters!D10</f>
+        <v>1</v>
       </c>
       <c r="E6" s="156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="D7" s="103" t="str">
         <f>parameters!D11</f>
-        <v>/MS1/</v>
+        <v>/path/to/folder//MS1</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="206"/>
       <c r="B8" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>parameters!D12</f>
         <v>All</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="206"/>
       <c r="B9" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>parameters!D13</f>
         <v>mzML</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="206"/>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="207"/>
       <c r="B11" s="113" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="D11" s="115" t="str">
         <f>parameters!D15</f>
-        <v>/path/to/folder/IDSL.UFA</v>
+        <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E11" s="116"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="198" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="199"/>
       <c r="B13" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="12">
         <v>0.01</v>
@@ -4951,123 +4945,123 @@
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="199"/>
       <c r="B14" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14" s="12">
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="199"/>
       <c r="B15" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="199"/>
       <c r="B16" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D16" s="12">
         <v>950</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="199"/>
       <c r="B17" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="249"/>
       <c r="B18" s="161" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C18" s="162" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D18" s="163">
         <v>5</v>
       </c>
       <c r="E18" s="164" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="250" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B19" s="157" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E19" s="160" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="251"/>
       <c r="B20" s="50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="53" t="s">
@@ -5077,67 +5071,67 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="251"/>
       <c r="B21" s="50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="251"/>
       <c r="B22" s="50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="251"/>
       <c r="B23" s="50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D23" s="52">
         <v>50000</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="252"/>
       <c r="B24" s="165" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D24" s="167">
         <v>10</v>
@@ -5149,7 +5143,7 @@
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="245"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
@@ -5159,7 +5153,7 @@
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="245"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
@@ -5169,7 +5163,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="245"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
@@ -5201,38 +5195,38 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="76.44140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="66.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="29" customWidth="1"/>
     <col min="8" max="8" width="47" style="29" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="9" max="9" width="49.33203125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="145" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G1" s="100" t="s">
         <v>5</v>
@@ -5244,19 +5238,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="179" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="D2" s="101" t="str">
         <f>parameters!D11</f>
-        <v>/MS1/</v>
+        <v>/path/to/folder//MS1</v>
       </c>
       <c r="E2" s="181"/>
       <c r="F2" s="189"/>
@@ -5264,236 +5258,236 @@
       <c r="H2" s="103"/>
       <c r="I2" s="103"/>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="206"/>
       <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="101" t="str">
         <f>parameters!D12</f>
         <v>All</v>
       </c>
       <c r="E3" s="181" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" s="189"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="206"/>
       <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="101" t="str">
         <f>parameters!D13</f>
         <v>mzML</v>
       </c>
       <c r="E4" s="181" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F4" s="189"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="206"/>
       <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="179" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="D5" s="101" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
       <c r="E5" s="181" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F5" s="189"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="207"/>
       <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="180" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="D6" s="113" t="str">
         <f>parameters!D15</f>
-        <v>/path/to/folder/IDSL.UFA</v>
+        <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E6" s="182" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="190"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
       <c r="I6" s="115"/>
     </row>
-    <row r="7" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="253" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="170" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E7" s="171" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F7" s="191"/>
       <c r="G7" s="172"/>
       <c r="H7" s="172"/>
       <c r="I7" s="172"/>
     </row>
-    <row r="8" spans="1:9" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="254"/>
       <c r="B8" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F8" s="192"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="254"/>
       <c r="B9" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D9" s="42">
         <v>0.1</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F9" s="192"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="254"/>
       <c r="B10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>132</v>
-      </c>
       <c r="E10" s="44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="192"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="254"/>
       <c r="B11" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D11" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F11" s="256" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="31" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="254"/>
       <c r="B12" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F12" s="257"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:9" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="254"/>
       <c r="B13" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F13" s="192"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
     </row>
-    <row r="14" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="254"/>
       <c r="B14" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="42">
         <v>0.01</v>
@@ -5506,64 +5500,64 @@
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="254"/>
       <c r="B15" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D15" s="42">
         <v>30</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="193"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
     </row>
-    <row r="16" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="254"/>
       <c r="B16" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="193"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
     </row>
-    <row r="17" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="255"/>
       <c r="B17" s="173" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D17" s="173" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F17" s="194"/>
       <c r="G17" s="176"/>
       <c r="H17" s="176"/>
       <c r="I17" s="176"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:A17"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>PARAM0025</t>
   </si>
   <si>
-    <t>"YES" OR "NO"</t>
-  </si>
-  <si>
     <t>FS0001</t>
   </si>
   <si>
@@ -1455,9 +1452,6 @@
     </r>
   </si>
   <si>
-    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Address of a </t>
     </r>
@@ -1712,6 +1706,48 @@
   </si>
   <si>
     <t>c(1e30, 1e-12, 100)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO". When "YES", select "YES" for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
   </si>
 </sst>
 </file>
@@ -3494,21 +3530,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="87.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="73.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -3525,10 +3561,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="219" t="s">
         <v>23</v>
       </c>
@@ -3536,57 +3572,57 @@
         <v>0</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="F2" s="229" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="230"/>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="220"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="230"/>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="220"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D3, "/", formula_source!D4, ".Rdata")</f>
@@ -3597,61 +3633,61 @@
       </c>
       <c r="F5" s="231"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="220"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F6" s="162"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="220"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F7" s="162"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="220"/>
       <c r="B8" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="198" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="199" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="200" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F8" s="201"/>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="220"/>
       <c r="B9" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="88">
         <v>1</v>
@@ -3661,7 +3697,7 @@
       </c>
       <c r="F9" s="163"/>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="221" t="s">
         <v>25</v>
       </c>
@@ -3669,21 +3705,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="164"/>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>67</v>
@@ -3693,73 +3729,73 @@
       </c>
       <c r="F11" s="165"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="165"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="223"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="191" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="193" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F13" s="165"/>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="223"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="176" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="177" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F14" s="165"/>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="223"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="203" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15" s="204" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="166"/>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>14</v>
@@ -3771,81 +3807,81 @@
         <v>83</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="167"/>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="215"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="215"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="91" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="190"/>
     </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="216"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="12">
         <v>0.01</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="161"/>
     </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="216"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="12">
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="161"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="216"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="12">
         <v>950</v>
@@ -3855,7 +3891,7 @@
       </c>
       <c r="F21" s="161"/>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="216"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -3870,120 +3906,120 @@
         <v>22</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="216"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F23" s="228"/>
     </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="216"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="168"/>
     </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="217"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="135">
         <v>0</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="169"/>
     </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="217"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="103" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F26" s="170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="217"/>
       <c r="B27" s="104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="171" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="218"/>
       <c r="B28" s="105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="172" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="172" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="224" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="99">
         <v>50</v>
@@ -3993,13 +4029,13 @@
       </c>
       <c r="F29" s="173"/>
     </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="225"/>
       <c r="B30" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="75">
         <v>20</v>
@@ -4009,23 +4045,23 @@
       </c>
       <c r="F30" s="174"/>
     </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="226"/>
       <c r="B31" s="109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="111" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="133"/>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:A28"/>
@@ -4054,19 +4090,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4074,7 +4110,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>84</v>
@@ -4086,12 +4122,12 @@
         <v>27</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -4104,7 +4140,7 @@
       <c r="F2" s="66"/>
       <c r="G2" s="132"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="233"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
@@ -4119,7 +4155,7 @@
       <c r="F3" s="65"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="234" t="s">
         <v>69</v>
       </c>
@@ -4138,7 +4174,7 @@
       <c r="F4" s="66"/>
       <c r="G4" s="132"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="235"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
@@ -4155,7 +4191,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="144"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="235"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
@@ -4172,7 +4208,7 @@
       <c r="F6" s="67"/>
       <c r="G6" s="144"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="235"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
@@ -4189,10 +4225,10 @@
       <c r="F7" s="67"/>
       <c r="G7" s="144"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="235"/>
       <c r="B8" s="130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>75</v>
@@ -4205,11 +4241,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="144"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="235"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
@@ -4226,7 +4262,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="144"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="235"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
@@ -4243,7 +4279,7 @@
       <c r="F10" s="67"/>
       <c r="G10" s="144"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="235"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
@@ -4260,7 +4296,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="144"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="236"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
@@ -4277,7 +4313,7 @@
       <c r="F12" s="65"/>
       <c r="G12" s="133"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="240" t="s">
         <v>77</v>
       </c>
@@ -4296,7 +4332,7 @@
       <c r="F13" s="66"/>
       <c r="G13" s="132"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="240"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
@@ -4314,7 +4350,7 @@
       <c r="F14" s="67"/>
       <c r="G14" s="144"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="240"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
@@ -4331,7 +4367,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="144"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="240"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
@@ -4348,7 +4384,7 @@
       <c r="F16" s="67"/>
       <c r="G16" s="144"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="240"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
@@ -4365,10 +4401,10 @@
       <c r="F17" s="67"/>
       <c r="G17" s="144"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="240"/>
       <c r="B18" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>76</v>
@@ -4381,11 +4417,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="144"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="240"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
@@ -4402,7 +4438,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="144"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="240"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
@@ -4419,7 +4455,7 @@
       <c r="F20" s="67"/>
       <c r="G20" s="144"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="240"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
@@ -4436,12 +4472,12 @@
       <c r="F21" s="65"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="245" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="241" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="241"/>
       <c r="D22" s="241"/>
@@ -4449,14 +4485,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="132"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="246"/>
       <c r="B23" s="267" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="267"/>
       <c r="D23" s="267"/>
@@ -4464,11 +4500,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="144"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="246"/>
       <c r="B24" s="267" t="s">
         <v>87</v>
@@ -4476,17 +4512,17 @@
       <c r="C24" s="267"/>
       <c r="D24" s="267"/>
       <c r="E24" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="144"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="246"/>
       <c r="B25" s="251" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="252"/>
       <c r="D25" s="253"/>
@@ -4494,14 +4530,14 @@
         <v>6</v>
       </c>
       <c r="F25" s="195" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G25" s="196"/>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="247"/>
       <c r="B26" s="268" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="268"/>
       <c r="D26" s="268"/>
@@ -4509,13 +4545,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="260" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="257" t="s">
         <v>49</v>
@@ -4526,11 +4562,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G27" s="132"/>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="261"/>
       <c r="B28" s="242" t="s">
         <v>50</v>
@@ -4541,13 +4577,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" s="133"/>
     </row>
-    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="260" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="237" t="s">
         <v>88</v>
@@ -4555,19 +4591,19 @@
       <c r="C29" s="238"/>
       <c r="D29" s="239"/>
       <c r="E29" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G29" s="265" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="240"/>
       <c r="B30" s="262" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="263"/>
       <c r="D30" s="264"/>
@@ -4575,33 +4611,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="266"/>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="261"/>
       <c r="B31" s="254" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="255"/>
       <c r="D31" s="256"/>
       <c r="E31" s="57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F31" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="260" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="248" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="249"/>
       <c r="D32" s="250"/>
@@ -4613,10 +4649,10 @@
       </c>
       <c r="G32" s="132"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="240"/>
       <c r="B33" s="251" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="252"/>
       <c r="D33" s="253"/>
@@ -4627,22 +4663,22 @@
       <c r="F33" s="67"/>
       <c r="G33" s="144"/>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="261"/>
       <c r="B34" s="254" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="255"/>
       <c r="D34" s="256"/>
       <c r="E34" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="133"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="G29:G30"/>
@@ -4682,21 +4718,21 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="68" style="29" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="70.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4713,34 +4749,34 @@
         <v>26</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="271" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="205" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F2" s="206"/>
     </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272"/>
       <c r="B3" s="84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="84" t="str">
         <f>enumerated_chemical_space!E33</f>
@@ -4749,31 +4785,31 @@
       <c r="E3" s="205"/>
       <c r="F3" s="207"/>
     </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="273"/>
       <c r="B4" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="208" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="209"/>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="274" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="209"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="274" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>96</v>
-      </c>
       <c r="C5" s="114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="113">
         <v>1</v>
@@ -4783,93 +4819,93 @@
       </c>
       <c r="F5" s="211"/>
     </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="275"/>
       <c r="B6" s="113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="113" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="212"/>
     </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="275"/>
       <c r="B7" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="114" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="115" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="212" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="275"/>
       <c r="B8" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="269" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="275"/>
       <c r="B9" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="270"/>
     </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="276"/>
       <c r="B10" s="117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E10" s="210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="213" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F8:F9"/>
@@ -4894,22 +4930,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="80" t="s">
         <v>28</v>
@@ -4927,167 +4963,167 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="277" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="121" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="278"/>
       <c r="B3" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="48" t="str">
         <f>parameters!D5</f>
         <v>/path/to/folder//MS1/IDSL.UFA/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="279"/>
       <c r="B4" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="148" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="280"/>
       <c r="B5" s="123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="84" t="str">
         <f>parameters!D10</f>
         <v>/path/to/folder//MS1</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
       <c r="B7" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="223"/>
       <c r="B8" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="139" t="str">
         <f>parameters!D12</f>
         <v>/peaklists</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="281"/>
       <c r="B9" s="93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="95" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="282" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="91">
         <f>parameters!D9</f>
@@ -5100,69 +5136,69 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="283"/>
       <c r="B11" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="91">
         <v>0.1</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="283"/>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="12">
         <f>parameters!D19</f>
         <v>0.01</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="283"/>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="12">
         <f>parameters!D20</f>
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="283"/>
       <c r="B14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="12">
         <f>parameters!D21</f>
@@ -5175,10 +5211,10 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="283"/>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>68</v>
@@ -5194,70 +5230,70 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="284"/>
       <c r="B16" s="126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="128">
         <f>parameters!D23</f>
         <v>5</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="287" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="178" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="181" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="181" t="s">
-        <v>109</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="288"/>
       <c r="B18" s="155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="157"/>
       <c r="E18" s="158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="285" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="182" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="183" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="184">
         <f>D10</f>
@@ -5270,67 +5306,67 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="285"/>
       <c r="B20" s="186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="187" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="285"/>
       <c r="B21" s="186" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="187" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="285"/>
       <c r="B22" s="186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="189" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="188">
         <v>50000</v>
       </c>
       <c r="E22" s="187" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="286"/>
       <c r="B23" s="151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="153">
         <v>10</v>
@@ -5342,7 +5378,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="150"/>
       <c r="B24" s="43"/>
       <c r="C24" s="36"/>
@@ -5352,7 +5388,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150"/>
       <c r="B25" s="43"/>
       <c r="C25" s="36"/>
@@ -5362,7 +5398,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150"/>
       <c r="B26" s="43"/>
       <c r="C26" s="36"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\IDSL.UFA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="274">
   <si>
     <t>PARAM0001</t>
   </si>
@@ -1748,6 +1748,9 @@
   </si>
   <si>
     <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
   </si>
 </sst>
 </file>
@@ -2871,9 +2874,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3066,6 +3066,72 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3090,9 +3156,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3114,69 +3177,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3235,6 +3235,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3530,7 +3533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3565,7 +3568,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="218" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="76" t="s">
@@ -3580,12 +3583,12 @@
       <c r="E2" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="229" t="s">
+      <c r="F2" s="228" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
+      <c r="A3" s="219"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3598,10 +3601,10 @@
       <c r="E3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="230"/>
+      <c r="F3" s="229"/>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="220"/>
+      <c r="A4" s="219"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3614,10 +3617,10 @@
       <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="230"/>
+      <c r="F4" s="229"/>
     </row>
     <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220"/>
+      <c r="A5" s="219"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3631,10 +3634,10 @@
       <c r="E5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="231"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3653,7 @@
       <c r="F6" s="162"/>
     </row>
     <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="220"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3666,23 +3669,23 @@
       <c r="F7" s="162"/>
     </row>
     <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
-      <c r="B8" s="197" t="s">
+      <c r="A8" s="219"/>
+      <c r="B8" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="200" t="s">
+      <c r="E8" s="199" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="201"/>
+      <c r="F8" s="200"/>
     </row>
     <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="86" t="s">
         <v>204</v>
       </c>
@@ -3698,7 +3701,7 @@
       <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221" t="s">
+      <c r="A10" s="220" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="82" t="s">
@@ -3714,7 +3717,7 @@
       <c r="F10" s="164"/>
     </row>
     <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3730,7 +3733,7 @@
       <c r="F11" s="165"/>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="222"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3746,55 +3749,55 @@
       <c r="F12" s="165"/>
     </row>
     <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="223"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="190" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="191" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="193" t="s">
+      <c r="E13" s="192" t="s">
         <v>256</v>
       </c>
       <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="223"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="174" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="176" t="s">
+      <c r="D14" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="177" t="s">
+      <c r="E14" s="176" t="s">
         <v>268</v>
       </c>
       <c r="F14" s="165"/>
     </row>
     <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="223"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="203" t="s">
+      <c r="D15" s="202" t="s">
         <v>264</v>
       </c>
-      <c r="E15" s="204" t="s">
+      <c r="E15" s="203" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="166"/>
     </row>
     <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="213" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
@@ -3809,10 +3812,12 @@
       <c r="E16" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="167"/>
+      <c r="F16" s="288" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
@@ -3828,7 +3833,7 @@
       <c r="F17" s="161"/>
     </row>
     <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
@@ -3841,10 +3846,10 @@
       <c r="E18" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="190"/>
+      <c r="F18" s="189"/>
     </row>
     <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
@@ -3860,7 +3865,7 @@
       <c r="F19" s="161"/>
     </row>
     <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="216"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
@@ -3876,7 +3881,7 @@
       <c r="F20" s="161"/>
     </row>
     <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -3892,7 +3897,7 @@
       <c r="F21" s="161"/>
     </row>
     <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
@@ -3905,12 +3910,12 @@
       <c r="E22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="227" t="s">
+      <c r="F22" s="226" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
+      <c r="A23" s="215"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
@@ -3923,10 +3928,10 @@
       <c r="E23" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F23" s="228"/>
+      <c r="F23" s="227"/>
     </row>
     <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
+      <c r="A24" s="215"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
@@ -3939,10 +3944,10 @@
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="168"/>
+      <c r="F24" s="167"/>
     </row>
     <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="217"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
@@ -3955,10 +3960,10 @@
       <c r="E25" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="169"/>
+      <c r="F25" s="168"/>
     </row>
     <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="217"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
@@ -3971,12 +3976,12 @@
       <c r="E26" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="170" t="s">
+      <c r="F26" s="169" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="217"/>
+      <c r="A27" s="216"/>
       <c r="B27" s="104" t="s">
         <v>103</v>
       </c>
@@ -3989,12 +3994,12 @@
       <c r="E27" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="171" t="s">
+      <c r="F27" s="170" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
+      <c r="A28" s="217"/>
       <c r="B28" s="105" t="s">
         <v>113</v>
       </c>
@@ -4007,12 +4012,12 @@
       <c r="E28" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="F28" s="172" t="s">
+      <c r="F28" s="171" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="223" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
@@ -4027,10 +4032,10 @@
       <c r="E29" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="173"/>
+      <c r="F29" s="172"/>
     </row>
     <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="225"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="72" t="s">
         <v>152</v>
       </c>
@@ -4043,10 +4048,10 @@
       <c r="E30" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="174"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="226"/>
+      <c r="A31" s="225"/>
       <c r="B31" s="109" t="s">
         <v>194</v>
       </c>
@@ -4075,9 +4080,10 @@
     <hyperlink ref="F22" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F26" r:id="rId3"/>
+    <hyperlink ref="F16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4126,7 +4132,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="253" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="53"/>
@@ -4141,7 +4147,7 @@
       <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="233"/>
+      <c r="A3" s="254"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
       </c>
@@ -4156,7 +4162,7 @@
       <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="255" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4175,7 +4181,7 @@
       <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="235"/>
+      <c r="A5" s="256"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
@@ -4192,7 +4198,7 @@
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="235"/>
+      <c r="A6" s="256"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
@@ -4209,7 +4215,7 @@
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="235"/>
+      <c r="A7" s="256"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4226,7 +4232,7 @@
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="235"/>
+      <c r="A8" s="256"/>
       <c r="B8" s="130" t="s">
         <v>175</v>
       </c>
@@ -4246,7 +4252,7 @@
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="235"/>
+      <c r="A9" s="256"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -4263,7 +4269,7 @@
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="235"/>
+      <c r="A10" s="256"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -4280,7 +4286,7 @@
       <c r="G10" s="144"/>
     </row>
     <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="235"/>
+      <c r="A11" s="256"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
@@ -4297,7 +4303,7 @@
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
+      <c r="A12" s="257"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
@@ -4314,7 +4320,7 @@
       <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="240" t="s">
+      <c r="A13" s="248" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -4333,7 +4339,7 @@
       <c r="G13" s="132"/>
     </row>
     <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="240"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
@@ -4351,7 +4357,7 @@
       <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="240"/>
+      <c r="A15" s="248"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4368,7 +4374,7 @@
       <c r="G15" s="144"/>
     </row>
     <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="240"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
@@ -4385,7 +4391,7 @@
       <c r="G16" s="144"/>
     </row>
     <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="240"/>
+      <c r="A17" s="248"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
@@ -4402,7 +4408,7 @@
       <c r="G17" s="144"/>
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="240"/>
+      <c r="A18" s="248"/>
       <c r="B18" s="24" t="s">
         <v>176</v>
       </c>
@@ -4422,7 +4428,7 @@
       <c r="G18" s="144"/>
     </row>
     <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="240"/>
+      <c r="A19" s="248"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
       </c>
@@ -4439,7 +4445,7 @@
       <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="240"/>
+      <c r="A20" s="248"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
@@ -4456,7 +4462,7 @@
       <c r="G20" s="144"/>
     </row>
     <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="240"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
       </c>
@@ -4473,14 +4479,14 @@
       <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="265" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="241" t="s">
+      <c r="B22" s="261" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
+      <c r="C22" s="261"/>
+      <c r="D22" s="261"/>
       <c r="E22" s="63" t="b">
         <v>1</v>
       </c>
@@ -4490,12 +4496,12 @@
       <c r="G22" s="132"/>
     </row>
     <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="246"/>
-      <c r="B23" s="267" t="s">
+      <c r="A23" s="266"/>
+      <c r="B23" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4505,12 +4511,12 @@
       <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="246"/>
-      <c r="B24" s="267" t="s">
+      <c r="A24" s="266"/>
+      <c r="B24" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="267"/>
-      <c r="D24" s="267"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
       <c r="E24" s="26" t="s">
         <v>147</v>
       </c>
@@ -4520,27 +4526,27 @@
       <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="246"/>
-      <c r="B25" s="251" t="s">
+      <c r="A25" s="266"/>
+      <c r="B25" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="194">
+      <c r="C25" s="239"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="193">
         <v>6</v>
       </c>
-      <c r="F25" s="195" t="s">
+      <c r="F25" s="194" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="196"/>
+      <c r="G25" s="195"/>
     </row>
     <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="247"/>
-      <c r="B26" s="268" t="s">
+      <c r="A26" s="267"/>
+      <c r="B26" s="237" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="268"/>
-      <c r="D26" s="268"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="51" t="b">
         <v>1</v>
       </c>
@@ -4550,14 +4556,14 @@
       <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="260" t="s">
+      <c r="A27" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="257" t="s">
+      <c r="B27" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
       <c r="E27" s="63" t="b">
         <v>1</v>
       </c>
@@ -4567,12 +4573,12 @@
       <c r="G27" s="132"/>
     </row>
     <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="261"/>
-      <c r="B28" s="242" t="s">
+      <c r="A28" s="249"/>
+      <c r="B28" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="51" t="b">
         <v>1</v>
       </c>
@@ -4582,46 +4588,46 @@
       <c r="G28" s="133"/>
     </row>
     <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="260" t="s">
+      <c r="A29" s="247" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="237" t="s">
+      <c r="B29" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="238"/>
-      <c r="D29" s="239"/>
+      <c r="C29" s="259"/>
+      <c r="D29" s="260"/>
       <c r="E29" s="63" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="G29" s="265" t="s">
+      <c r="G29" s="231" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="240"/>
-      <c r="B30" s="262" t="s">
+      <c r="A30" s="248"/>
+      <c r="B30" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="263"/>
-      <c r="D30" s="264"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="252"/>
       <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="266"/>
+      <c r="G30" s="232"/>
     </row>
     <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="261"/>
-      <c r="B31" s="254" t="s">
+      <c r="A31" s="249"/>
+      <c r="B31" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="255"/>
-      <c r="D31" s="256"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="235"/>
       <c r="E31" s="57" t="s">
         <v>270</v>
       </c>
@@ -4633,14 +4639,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="241" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
@@ -4650,12 +4656,12 @@
       <c r="G32" s="132"/>
     </row>
     <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="240"/>
-      <c r="B33" s="251" t="s">
+      <c r="A33" s="248"/>
+      <c r="B33" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="252"/>
-      <c r="D33" s="253"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="240"/>
       <c r="E33" s="27" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
@@ -4664,12 +4670,12 @@
       <c r="G33" s="144"/>
     </row>
     <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="261"/>
-      <c r="B34" s="254" t="s">
+      <c r="A34" s="249"/>
+      <c r="B34" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="51" t="s">
         <v>185</v>
       </c>
@@ -4681,12 +4687,13 @@
     <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -4695,13 +4702,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4753,7 +4759,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="270" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -4765,13 +4771,13 @@
       <c r="D2" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="206"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="272"/>
+      <c r="A3" s="271"/>
       <c r="B3" s="84" t="s">
         <v>93</v>
       </c>
@@ -4782,11 +4788,11 @@
         <f>enumerated_chemical_space!E33</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="207"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="273"/>
+      <c r="A4" s="272"/>
       <c r="B4" s="95" t="s">
         <v>94</v>
       </c>
@@ -4796,13 +4802,13 @@
       <c r="D4" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="209"/>
+      <c r="F4" s="208"/>
     </row>
     <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="274" t="s">
+      <c r="A5" s="273" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="113" t="s">
@@ -4817,10 +4823,10 @@
       <c r="E5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="211"/>
+      <c r="F5" s="210"/>
     </row>
     <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="275"/>
+      <c r="A6" s="274"/>
       <c r="B6" s="113" t="s">
         <v>96</v>
       </c>
@@ -4833,10 +4839,10 @@
       <c r="E6" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="212"/>
+      <c r="F6" s="211"/>
     </row>
     <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="275"/>
+      <c r="A7" s="274"/>
       <c r="B7" s="113" t="s">
         <v>97</v>
       </c>
@@ -4849,12 +4855,12 @@
       <c r="E7" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="212" t="s">
+      <c r="F7" s="211" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="275"/>
+      <c r="A8" s="274"/>
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
@@ -4867,12 +4873,12 @@
       <c r="E8" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="269" t="s">
+      <c r="F8" s="268" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="275"/>
+      <c r="A9" s="274"/>
       <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
@@ -4885,10 +4891,10 @@
       <c r="E9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="270"/>
+      <c r="F9" s="269"/>
     </row>
     <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="276"/>
+      <c r="A10" s="275"/>
       <c r="B10" s="117" t="s">
         <v>247</v>
       </c>
@@ -4898,10 +4904,10 @@
       <c r="D10" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="210" t="s">
+      <c r="E10" s="209" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="213" t="s">
+      <c r="F10" s="212" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4964,7 +4970,7 @@
       <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="276" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
@@ -4984,7 +4990,7 @@
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="278"/>
+      <c r="A3" s="277"/>
       <c r="B3" s="46" t="s">
         <v>115</v>
       </c>
@@ -5003,7 +5009,7 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="279"/>
+      <c r="A4" s="278"/>
       <c r="B4" s="146" t="s">
         <v>116</v>
       </c>
@@ -5021,7 +5027,7 @@
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="280"/>
+      <c r="A5" s="279"/>
       <c r="B5" s="123" t="s">
         <v>117</v>
       </c>
@@ -5039,7 +5045,7 @@
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="220" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
@@ -5060,7 +5066,7 @@
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="222"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="82" t="s">
         <v>118</v>
       </c>
@@ -5078,7 +5084,7 @@
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="137" t="s">
         <v>119</v>
       </c>
@@ -5097,7 +5103,7 @@
       <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="281"/>
+      <c r="A9" s="280"/>
       <c r="B9" s="93" t="s">
         <v>120</v>
       </c>
@@ -5116,7 +5122,7 @@
       <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="282" t="s">
+      <c r="A10" s="281" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
@@ -5137,7 +5143,7 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="283"/>
+      <c r="A11" s="282"/>
       <c r="B11" s="91" t="s">
         <v>122</v>
       </c>
@@ -5155,7 +5161,7 @@
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="283"/>
+      <c r="A12" s="282"/>
       <c r="B12" s="6" t="s">
         <v>123</v>
       </c>
@@ -5174,7 +5180,7 @@
       <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="283"/>
+      <c r="A13" s="282"/>
       <c r="B13" s="6" t="s">
         <v>124</v>
       </c>
@@ -5193,7 +5199,7 @@
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="283"/>
+      <c r="A14" s="282"/>
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
@@ -5212,7 +5218,7 @@
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="283"/>
+      <c r="A15" s="282"/>
       <c r="B15" s="6" t="s">
         <v>126</v>
       </c>
@@ -5231,7 +5237,7 @@
       <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="284"/>
+      <c r="A16" s="283"/>
       <c r="B16" s="126" t="s">
         <v>127</v>
       </c>
@@ -5250,19 +5256,19 @@
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="287" t="s">
+      <c r="A17" s="286" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="180" t="s">
+      <c r="D17" s="179" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="180" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="41"/>
@@ -5270,7 +5276,7 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="288"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="155" t="s">
         <v>129</v>
       </c>
@@ -5286,20 +5292,20 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="285" t="s">
+      <c r="A19" s="284" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="181" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="183" t="s">
+      <c r="C19" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="184">
+      <c r="D19" s="183">
         <f>D10</f>
         <v>1</v>
       </c>
-      <c r="E19" s="185" t="s">
+      <c r="E19" s="184" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="41"/>
@@ -5307,17 +5313,17 @@
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="285"/>
-      <c r="B20" s="186" t="s">
+      <c r="A20" s="284"/>
+      <c r="B20" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="188" t="s">
+      <c r="D20" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="187" t="s">
+      <c r="E20" s="186" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="41"/>
@@ -5325,17 +5331,17 @@
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="285"/>
-      <c r="B21" s="186" t="s">
+      <c r="A21" s="284"/>
+      <c r="B21" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="186" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="188" t="s">
+      <c r="D21" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="187" t="s">
+      <c r="E21" s="186" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="41"/>
@@ -5343,17 +5349,17 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="285"/>
-      <c r="B22" s="186" t="s">
+      <c r="A22" s="284"/>
+      <c r="B22" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="189" t="s">
+      <c r="C22" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="188">
+      <c r="D22" s="187">
         <v>50000</v>
       </c>
-      <c r="E22" s="187" t="s">
+      <c r="E22" s="186" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="41"/>
@@ -5361,7 +5367,7 @@
       <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="286"/>
+      <c r="A23" s="285"/>
       <c r="B23" s="151" t="s">
         <v>134</v>
       </c>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\IDSL.UFA\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="275">
   <si>
     <t>PARAM0001</t>
   </si>
@@ -1751,6 +1751,9 @@
   </si>
   <si>
     <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/Score-Coefficients-Optimization</t>
   </si>
 </sst>
 </file>
@@ -2874,9 +2877,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3012,6 +3012,12 @@
     <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3066,11 +3072,71 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3081,102 +3147,42 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3235,9 +3241,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3536,18 +3539,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="87.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="75.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -3567,8 +3570,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="219" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="76" t="s">
@@ -3583,12 +3586,12 @@
       <c r="E2" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="228" t="s">
+      <c r="F2" s="229" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219"/>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3601,10 +3604,10 @@
       <c r="E3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="229"/>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="F3" s="230"/>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="220"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3617,10 +3620,10 @@
       <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="229"/>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="F4" s="230"/>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="220"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3634,10 +3637,10 @@
       <c r="E5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="230"/>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="F5" s="231"/>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="220"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3652,8 +3655,8 @@
       </c>
       <c r="F6" s="162"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="220"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3668,24 +3671,24 @@
       </c>
       <c r="F7" s="162"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
-      <c r="B8" s="196" t="s">
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="220"/>
+      <c r="B8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="196" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="198" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="200"/>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="219"/>
+      <c r="F8" s="199"/>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="220"/>
       <c r="B9" s="86" t="s">
         <v>204</v>
       </c>
@@ -3700,8 +3703,8 @@
       </c>
       <c r="F9" s="163"/>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="82" t="s">
@@ -3716,8 +3719,8 @@
       <c r="E10" s="85"/>
       <c r="F10" s="164"/>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="222"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3732,8 +3735,8 @@
       </c>
       <c r="F11" s="165"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="222"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3748,56 +3751,56 @@
       </c>
       <c r="F12" s="165"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="223"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="189" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="191" t="s">
+      <c r="D13" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="192" t="s">
+      <c r="E13" s="191" t="s">
         <v>256</v>
       </c>
       <c r="F13" s="165"/>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="223"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="175" t="s">
+      <c r="D14" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="176" t="s">
+      <c r="E14" s="175" t="s">
         <v>268</v>
       </c>
       <c r="F14" s="165"/>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="222"/>
+    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="223"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="200" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="202" t="s">
+      <c r="D15" s="201" t="s">
         <v>264</v>
       </c>
-      <c r="E15" s="203" t="s">
+      <c r="E15" s="202" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="166"/>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="213" t="s">
+    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="214" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
@@ -3812,12 +3815,12 @@
       <c r="E16" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="288" t="s">
+      <c r="F16" s="213" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
+    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="215"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
@@ -3832,8 +3835,8 @@
       </c>
       <c r="F17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="214"/>
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="215"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
@@ -3846,10 +3849,10 @@
       <c r="E18" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="189"/>
-    </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="F18" s="188"/>
+    </row>
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="216"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
@@ -3864,8 +3867,8 @@
       </c>
       <c r="F19" s="161"/>
     </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="216"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
@@ -3880,8 +3883,8 @@
       </c>
       <c r="F20" s="161"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="216"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -3896,8 +3899,8 @@
       </c>
       <c r="F21" s="161"/>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
+    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="216"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
@@ -3910,12 +3913,12 @@
       <c r="E22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="226" t="s">
+      <c r="F22" s="227" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="216"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
@@ -3928,10 +3931,10 @@
       <c r="E23" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F23" s="227"/>
-    </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
+      <c r="F23" s="228"/>
+    </row>
+    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="216"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
@@ -3944,10 +3947,12 @@
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="167"/>
-    </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="216"/>
+      <c r="F24" s="212" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="217"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
@@ -3960,10 +3965,10 @@
       <c r="E25" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="168"/>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
+      <c r="F25" s="167"/>
+    </row>
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="217"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
@@ -3976,12 +3981,12 @@
       <c r="E26" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="169" t="s">
+      <c r="F26" s="168" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="216"/>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="217"/>
       <c r="B27" s="104" t="s">
         <v>103</v>
       </c>
@@ -3994,12 +3999,12 @@
       <c r="E27" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="170" t="s">
+      <c r="F27" s="169" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="217"/>
+    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="218"/>
       <c r="B28" s="105" t="s">
         <v>113</v>
       </c>
@@ -4012,12 +4017,12 @@
       <c r="E28" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="F28" s="171" t="s">
+      <c r="F28" s="170" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="223" t="s">
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="224" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
@@ -4032,10 +4037,10 @@
       <c r="E29" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="172"/>
-    </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="224"/>
+      <c r="F29" s="171"/>
+    </row>
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="225"/>
       <c r="B30" s="72" t="s">
         <v>152</v>
       </c>
@@ -4048,10 +4053,10 @@
       <c r="E30" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="173"/>
-    </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="225"/>
+      <c r="F30" s="172"/>
+    </row>
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="226"/>
       <c r="B31" s="109" t="s">
         <v>194</v>
       </c>
@@ -4066,7 +4071,7 @@
       </c>
       <c r="F31" s="133"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:A28"/>
@@ -4081,9 +4086,10 @@
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F26" r:id="rId3"/>
     <hyperlink ref="F16" r:id="rId4"/>
+    <hyperlink ref="F24" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4096,19 +4102,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4131,8 +4137,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="253" t="s">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="232" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="53"/>
@@ -4146,8 +4152,8 @@
       <c r="F2" s="66"/>
       <c r="G2" s="132"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="254"/>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="233"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
       </c>
@@ -4161,8 +4167,8 @@
       <c r="F3" s="65"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="255" t="s">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="234" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4180,8 +4186,8 @@
       <c r="F4" s="66"/>
       <c r="G4" s="132"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="256"/>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="235"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
@@ -4197,8 +4203,8 @@
       <c r="F5" s="67"/>
       <c r="G5" s="144"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="256"/>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="235"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
@@ -4214,8 +4220,8 @@
       <c r="F6" s="67"/>
       <c r="G6" s="144"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="256"/>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="235"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4231,8 +4237,8 @@
       <c r="F7" s="67"/>
       <c r="G7" s="144"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="256"/>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="235"/>
       <c r="B8" s="130" t="s">
         <v>175</v>
       </c>
@@ -4251,8 +4257,8 @@
       </c>
       <c r="G8" s="144"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="256"/>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="235"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -4268,8 +4274,8 @@
       <c r="F9" s="67"/>
       <c r="G9" s="144"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="256"/>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="235"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -4285,8 +4291,8 @@
       <c r="F10" s="67"/>
       <c r="G10" s="144"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="256"/>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="235"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
@@ -4302,8 +4308,8 @@
       <c r="F11" s="67"/>
       <c r="G11" s="144"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="257"/>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="236"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
@@ -4319,8 +4325,8 @@
       <c r="F12" s="65"/>
       <c r="G12" s="133"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="248" t="s">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="240" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -4338,8 +4344,8 @@
       <c r="F13" s="66"/>
       <c r="G13" s="132"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="248"/>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="240"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
@@ -4356,8 +4362,8 @@
       <c r="F14" s="67"/>
       <c r="G14" s="144"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="248"/>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="240"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4373,8 +4379,8 @@
       <c r="F15" s="67"/>
       <c r="G15" s="144"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="248"/>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="240"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
@@ -4390,8 +4396,8 @@
       <c r="F16" s="67"/>
       <c r="G16" s="144"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="248"/>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="240"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
@@ -4407,8 +4413,8 @@
       <c r="F17" s="67"/>
       <c r="G17" s="144"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="248"/>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="240"/>
       <c r="B18" s="24" t="s">
         <v>176</v>
       </c>
@@ -4427,8 +4433,8 @@
       </c>
       <c r="G18" s="144"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="248"/>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="240"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
       </c>
@@ -4444,8 +4450,8 @@
       <c r="F19" s="67"/>
       <c r="G19" s="144"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="248"/>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="240"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
@@ -4461,8 +4467,8 @@
       <c r="F20" s="67"/>
       <c r="G20" s="144"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="248"/>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="240"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
       </c>
@@ -4478,15 +4484,15 @@
       <c r="F21" s="65"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="265" t="s">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="245" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="261" t="s">
+      <c r="B22" s="241" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="261"/>
-      <c r="D22" s="261"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
       <c r="E22" s="63" t="b">
         <v>1</v>
       </c>
@@ -4495,13 +4501,13 @@
       </c>
       <c r="G22" s="132"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="266"/>
-      <c r="B23" s="236" t="s">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="246"/>
+      <c r="B23" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
+      <c r="C23" s="267"/>
+      <c r="D23" s="267"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4510,13 +4516,13 @@
       </c>
       <c r="G23" s="144"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="266"/>
-      <c r="B24" s="236" t="s">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="246"/>
+      <c r="B24" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="267"/>
       <c r="E24" s="26" t="s">
         <v>147</v>
       </c>
@@ -4525,28 +4531,28 @@
       </c>
       <c r="G24" s="144"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="266"/>
-      <c r="B25" s="238" t="s">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="246"/>
+      <c r="B25" s="251" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="193">
+      <c r="C25" s="252"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="192">
         <v>6</v>
       </c>
-      <c r="F25" s="194" t="s">
+      <c r="F25" s="193" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="195"/>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="267"/>
-      <c r="B26" s="237" t="s">
+      <c r="G25" s="194"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="247"/>
+      <c r="B26" s="268" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="268"/>
       <c r="E26" s="51" t="b">
         <v>1</v>
       </c>
@@ -4555,15 +4561,15 @@
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="247" t="s">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="260" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="244" t="s">
+      <c r="B27" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="246"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
       <c r="E27" s="63" t="b">
         <v>1</v>
       </c>
@@ -4572,13 +4578,13 @@
       </c>
       <c r="G27" s="132"/>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="249"/>
-      <c r="B28" s="262" t="s">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="261"/>
+      <c r="B28" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="263"/>
-      <c r="D28" s="264"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="244"/>
       <c r="E28" s="51" t="b">
         <v>1</v>
       </c>
@@ -4587,47 +4593,47 @@
       </c>
       <c r="G28" s="133"/>
     </row>
-    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="247" t="s">
+    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="260" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="258" t="s">
+      <c r="B29" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="259"/>
-      <c r="D29" s="260"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="239"/>
       <c r="E29" s="63" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="G29" s="231" t="s">
+      <c r="G29" s="265" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="248"/>
-      <c r="B30" s="250" t="s">
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="240"/>
+      <c r="B30" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="251"/>
-      <c r="D30" s="252"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="264"/>
       <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="232"/>
-    </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
-      <c r="B31" s="233" t="s">
+      <c r="G30" s="266"/>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="261"/>
+      <c r="B31" s="254" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="235"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="256"/>
       <c r="E31" s="57" t="s">
         <v>270</v>
       </c>
@@ -4638,15 +4644,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247" t="s">
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="260" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="241" t="s">
+      <c r="B32" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="250"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
@@ -4655,13 +4661,13 @@
       </c>
       <c r="G32" s="132"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="248"/>
-      <c r="B33" s="238" t="s">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="240"/>
+      <c r="B33" s="251" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="239"/>
-      <c r="D33" s="240"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="253"/>
       <c r="E33" s="27" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
@@ -4669,13 +4675,13 @@
       <c r="F33" s="67"/>
       <c r="G33" s="144"/>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="249"/>
-      <c r="B34" s="233" t="s">
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="261"/>
+      <c r="B34" s="254" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="235"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="256"/>
       <c r="E34" s="51" t="s">
         <v>185</v>
       </c>
@@ -4684,16 +4690,15 @@
       </c>
       <c r="G34" s="133"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -4702,12 +4707,13 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4727,18 +4733,18 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="29" customWidth="1"/>
     <col min="4" max="4" width="68" style="29" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="70.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4758,8 +4764,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="270" t="s">
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="271" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -4771,13 +4777,13 @@
       <c r="D2" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="203" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="205"/>
-    </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="271"/>
+      <c r="F2" s="204"/>
+    </row>
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="272"/>
       <c r="B3" s="84" t="s">
         <v>93</v>
       </c>
@@ -4788,11 +4794,11 @@
         <f>enumerated_chemical_space!E33</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="205"/>
+    </row>
+    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="273"/>
       <c r="B4" s="95" t="s">
         <v>94</v>
       </c>
@@ -4802,13 +4808,13 @@
       <c r="D4" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="208"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="273" t="s">
+      <c r="F4" s="207"/>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="274" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="113" t="s">
@@ -4823,10 +4829,10 @@
       <c r="E5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="210"/>
-    </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="274"/>
+      <c r="F5" s="209"/>
+    </row>
+    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="275"/>
       <c r="B6" s="113" t="s">
         <v>96</v>
       </c>
@@ -4839,10 +4845,10 @@
       <c r="E6" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="211"/>
-    </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
+      <c r="F6" s="210"/>
+    </row>
+    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="275"/>
       <c r="B7" s="113" t="s">
         <v>97</v>
       </c>
@@ -4855,12 +4861,12 @@
       <c r="E7" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="211" t="s">
+      <c r="F7" s="210" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
+    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A8" s="275"/>
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
@@ -4873,12 +4879,12 @@
       <c r="E8" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="268" t="s">
+      <c r="F8" s="269" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="274"/>
+    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="275"/>
       <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
@@ -4891,10 +4897,10 @@
       <c r="E9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="269"/>
-    </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275"/>
+      <c r="F9" s="270"/>
+    </row>
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="276"/>
       <c r="B10" s="117" t="s">
         <v>247</v>
       </c>
@@ -4904,14 +4910,14 @@
       <c r="D10" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="209" t="s">
+      <c r="E10" s="208" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="212" t="s">
+      <c r="F10" s="211" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F8:F9"/>
@@ -4936,20 +4942,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>135</v>
       </c>
@@ -4969,8 +4975,8 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="276" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="277" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
@@ -4989,8 +4995,8 @@
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="277"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="278"/>
       <c r="B3" s="46" t="s">
         <v>115</v>
       </c>
@@ -5008,8 +5014,8 @@
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="278"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="279"/>
       <c r="B4" s="146" t="s">
         <v>116</v>
       </c>
@@ -5026,8 +5032,8 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="279"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="280"/>
       <c r="B5" s="123" t="s">
         <v>117</v>
       </c>
@@ -5044,8 +5050,8 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220" t="s">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
@@ -5065,8 +5071,8 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="222"/>
       <c r="B7" s="82" t="s">
         <v>118</v>
       </c>
@@ -5083,8 +5089,8 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="223"/>
       <c r="B8" s="137" t="s">
         <v>119</v>
       </c>
@@ -5102,8 +5108,8 @@
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="280"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="281"/>
       <c r="B9" s="93" t="s">
         <v>120</v>
       </c>
@@ -5121,8 +5127,8 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="281" t="s">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="282" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
@@ -5142,8 +5148,8 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="282"/>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="283"/>
       <c r="B11" s="91" t="s">
         <v>122</v>
       </c>
@@ -5160,8 +5166,8 @@
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="283"/>
       <c r="B12" s="6" t="s">
         <v>123</v>
       </c>
@@ -5179,8 +5185,8 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="283"/>
       <c r="B13" s="6" t="s">
         <v>124</v>
       </c>
@@ -5198,8 +5204,8 @@
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="282"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="283"/>
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
@@ -5217,8 +5223,8 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="282"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="283"/>
       <c r="B15" s="6" t="s">
         <v>126</v>
       </c>
@@ -5236,8 +5242,8 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="283"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="284"/>
       <c r="B16" s="126" t="s">
         <v>127</v>
       </c>
@@ -5255,28 +5261,28 @@
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="286" t="s">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="287" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="179" t="s">
+      <c r="D17" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="179" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="287"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="288"/>
       <c r="B18" s="155" t="s">
         <v>129</v>
       </c>
@@ -5291,83 +5297,83 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="284" t="s">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="285" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="183">
+      <c r="D19" s="182">
         <f>D10</f>
         <v>1</v>
       </c>
-      <c r="E19" s="184" t="s">
+      <c r="E19" s="183" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="284"/>
-      <c r="B20" s="185" t="s">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="285"/>
+      <c r="B20" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="186" t="s">
+      <c r="C20" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="187" t="s">
+      <c r="D20" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="186" t="s">
+      <c r="E20" s="185" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="284"/>
-      <c r="B21" s="185" t="s">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="285"/>
+      <c r="B21" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="186" t="s">
+      <c r="C21" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="187" t="s">
+      <c r="D21" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="185" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="284"/>
-      <c r="B22" s="185" t="s">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="285"/>
+      <c r="B22" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="188" t="s">
+      <c r="C22" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="187">
+      <c r="D22" s="186">
         <v>50000</v>
       </c>
-      <c r="E22" s="186" t="s">
+      <c r="E22" s="185" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="285"/>
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="286"/>
       <c r="B23" s="151" t="s">
         <v>134</v>
       </c>
@@ -5384,7 +5390,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="150"/>
       <c r="B24" s="43"/>
       <c r="C24" s="36"/>
@@ -5394,7 +5400,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="150"/>
       <c r="B25" s="43"/>
       <c r="C25" s="36"/>
@@ -5404,7 +5410,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="150"/>
       <c r="B26" s="43"/>
       <c r="C26" s="36"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="275">
   <si>
     <t>PARAM0001</t>
   </si>
@@ -1760,7 +1760,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,6 +1893,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2865,9 +2872,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3072,6 +3076,72 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3096,9 +3166,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3120,69 +3187,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3241,6 +3245,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3536,21 +3543,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="87.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="73.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -3570,8 +3577,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="218" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="76" t="s">
@@ -3586,12 +3593,12 @@
       <c r="E2" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="229" t="s">
+      <c r="F2" s="228" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220"/>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="219"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3604,10 +3611,10 @@
       <c r="E3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="230"/>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="220"/>
+      <c r="F3" s="229"/>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="219"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3620,10 +3627,10 @@
       <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="230"/>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="220"/>
+      <c r="F4" s="229"/>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="219"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3637,10 +3644,10 @@
       <c r="E5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="231"/>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
+      <c r="F5" s="230"/>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="219"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3655,8 +3662,8 @@
       </c>
       <c r="F6" s="162"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="220"/>
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="219"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3671,24 +3678,24 @@
       </c>
       <c r="F7" s="162"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="220"/>
-      <c r="B8" s="195" t="s">
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="219"/>
+      <c r="B8" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="197" t="s">
+      <c r="D8" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="198" t="s">
+      <c r="E8" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="199"/>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="220"/>
+      <c r="F8" s="198"/>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="219"/>
       <c r="B9" s="86" t="s">
         <v>204</v>
       </c>
@@ -3701,10 +3708,12 @@
       <c r="E9" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="163"/>
-    </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="221" t="s">
+      <c r="F9" s="288" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="220" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="82" t="s">
@@ -3717,10 +3726,10 @@
         <v>188</v>
       </c>
       <c r="E10" s="85"/>
-      <c r="F10" s="164"/>
-    </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="222"/>
+      <c r="F10" s="163"/>
+    </row>
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="221"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3733,10 +3742,10 @@
       <c r="E11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="165"/>
-    </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="222"/>
+      <c r="F11" s="164"/>
+    </row>
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="221"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3749,58 +3758,58 @@
       <c r="E12" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="165"/>
-    </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="223"/>
+      <c r="F12" s="164"/>
+    </row>
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="222"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="190" t="s">
+      <c r="D13" s="189" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="191" t="s">
+      <c r="E13" s="190" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="165"/>
-    </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="223"/>
+      <c r="F13" s="164"/>
+    </row>
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="222"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="175" t="s">
+      <c r="E14" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="165"/>
-    </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="223"/>
+      <c r="F14" s="164"/>
+    </row>
+    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="222"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="199" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="201" t="s">
+      <c r="D15" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="E15" s="202" t="s">
+      <c r="E15" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="166"/>
-    </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214" t="s">
+      <c r="F15" s="165"/>
+    </row>
+    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="213" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
@@ -3815,12 +3824,12 @@
       <c r="E16" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="213" t="s">
+      <c r="F16" s="212" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="215"/>
+    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="214"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
@@ -3835,8 +3844,8 @@
       </c>
       <c r="F17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="215"/>
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="214"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
@@ -3849,10 +3858,10 @@
       <c r="E18" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="188"/>
-    </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="216"/>
+      <c r="F18" s="187"/>
+    </row>
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="215"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
@@ -3867,8 +3876,8 @@
       </c>
       <c r="F19" s="161"/>
     </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="216"/>
+    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="215"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
@@ -3883,8 +3892,8 @@
       </c>
       <c r="F20" s="161"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="216"/>
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="215"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -3899,8 +3908,8 @@
       </c>
       <c r="F21" s="161"/>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="216"/>
+    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="215"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
@@ -3913,12 +3922,12 @@
       <c r="E22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="227" t="s">
+      <c r="F22" s="226" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="216"/>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="215"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
@@ -3931,10 +3940,10 @@
       <c r="E23" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F23" s="228"/>
-    </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="216"/>
+      <c r="F23" s="227"/>
+    </row>
+    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="215"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
@@ -3947,12 +3956,12 @@
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="212" t="s">
+      <c r="F24" s="211" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="217"/>
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="216"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
@@ -3965,10 +3974,10 @@
       <c r="E25" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="167"/>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="217"/>
+      <c r="F25" s="166"/>
+    </row>
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="216"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
@@ -3981,12 +3990,12 @@
       <c r="E26" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="168" t="s">
+      <c r="F26" s="167" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="217"/>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="216"/>
       <c r="B27" s="104" t="s">
         <v>103</v>
       </c>
@@ -3999,12 +4008,12 @@
       <c r="E27" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="169" t="s">
+      <c r="F27" s="168" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="218"/>
+    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="217"/>
       <c r="B28" s="105" t="s">
         <v>113</v>
       </c>
@@ -4017,12 +4026,12 @@
       <c r="E28" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="F28" s="170" t="s">
+      <c r="F28" s="169" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="224" t="s">
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="223" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
@@ -4037,10 +4046,10 @@
       <c r="E29" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="171"/>
-    </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="225"/>
+      <c r="F29" s="170"/>
+    </row>
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="224"/>
       <c r="B30" s="72" t="s">
         <v>152</v>
       </c>
@@ -4053,10 +4062,10 @@
       <c r="E30" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="172"/>
-    </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="226"/>
+      <c r="F30" s="171"/>
+    </row>
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="225"/>
       <c r="B31" s="109" t="s">
         <v>194</v>
       </c>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="F31" s="133"/>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:A28"/>
@@ -4087,9 +4096,10 @@
     <hyperlink ref="F26" r:id="rId3"/>
     <hyperlink ref="F16" r:id="rId4"/>
     <hyperlink ref="F24" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4102,19 +4112,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4137,8 +4147,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="253" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="53"/>
@@ -4152,8 +4162,8 @@
       <c r="F2" s="66"/>
       <c r="G2" s="132"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="233"/>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="254"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
       </c>
@@ -4167,8 +4177,8 @@
       <c r="F3" s="65"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="255" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4186,8 +4196,8 @@
       <c r="F4" s="66"/>
       <c r="G4" s="132"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="256"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
@@ -4203,8 +4213,8 @@
       <c r="F5" s="67"/>
       <c r="G5" s="144"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="235"/>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="256"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
@@ -4220,8 +4230,8 @@
       <c r="F6" s="67"/>
       <c r="G6" s="144"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="235"/>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="256"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4237,8 +4247,8 @@
       <c r="F7" s="67"/>
       <c r="G7" s="144"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="235"/>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="256"/>
       <c r="B8" s="130" t="s">
         <v>175</v>
       </c>
@@ -4257,8 +4267,8 @@
       </c>
       <c r="G8" s="144"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="235"/>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="256"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -4274,8 +4284,8 @@
       <c r="F9" s="67"/>
       <c r="G9" s="144"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="235"/>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="256"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -4291,8 +4301,8 @@
       <c r="F10" s="67"/>
       <c r="G10" s="144"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="235"/>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="256"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
@@ -4308,8 +4318,8 @@
       <c r="F11" s="67"/>
       <c r="G11" s="144"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="236"/>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="257"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
@@ -4325,8 +4335,8 @@
       <c r="F12" s="65"/>
       <c r="G12" s="133"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="240" t="s">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="248" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -4344,8 +4354,8 @@
       <c r="F13" s="66"/>
       <c r="G13" s="132"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="240"/>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="248"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
@@ -4362,8 +4372,8 @@
       <c r="F14" s="67"/>
       <c r="G14" s="144"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="248"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4379,8 +4389,8 @@
       <c r="F15" s="67"/>
       <c r="G15" s="144"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="240"/>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="248"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
@@ -4396,8 +4406,8 @@
       <c r="F16" s="67"/>
       <c r="G16" s="144"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="240"/>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="248"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
@@ -4413,8 +4423,8 @@
       <c r="F17" s="67"/>
       <c r="G17" s="144"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="240"/>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="248"/>
       <c r="B18" s="24" t="s">
         <v>176</v>
       </c>
@@ -4433,8 +4443,8 @@
       </c>
       <c r="G18" s="144"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="240"/>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="248"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
       </c>
@@ -4450,8 +4460,8 @@
       <c r="F19" s="67"/>
       <c r="G19" s="144"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="240"/>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="248"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
@@ -4467,8 +4477,8 @@
       <c r="F20" s="67"/>
       <c r="G20" s="144"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="240"/>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="248"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
       </c>
@@ -4484,15 +4494,15 @@
       <c r="F21" s="65"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="245" t="s">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="265" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="241" t="s">
+      <c r="B22" s="261" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
+      <c r="C22" s="261"/>
+      <c r="D22" s="261"/>
       <c r="E22" s="63" t="b">
         <v>1</v>
       </c>
@@ -4501,13 +4511,13 @@
       </c>
       <c r="G22" s="132"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
-      <c r="B23" s="267" t="s">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="266"/>
+      <c r="B23" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4516,13 +4526,13 @@
       </c>
       <c r="G23" s="144"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="246"/>
-      <c r="B24" s="267" t="s">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="266"/>
+      <c r="B24" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="267"/>
-      <c r="D24" s="267"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
       <c r="E24" s="26" t="s">
         <v>147</v>
       </c>
@@ -4531,28 +4541,28 @@
       </c>
       <c r="G24" s="144"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="246"/>
-      <c r="B25" s="251" t="s">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="266"/>
+      <c r="B25" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="192">
+      <c r="C25" s="239"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="191">
         <v>6</v>
       </c>
-      <c r="F25" s="193" t="s">
+      <c r="F25" s="192" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="194"/>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="247"/>
-      <c r="B26" s="268" t="s">
+      <c r="G25" s="193"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="267"/>
+      <c r="B26" s="237" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="268"/>
-      <c r="D26" s="268"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="51" t="b">
         <v>1</v>
       </c>
@@ -4561,15 +4571,15 @@
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="260" t="s">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="257" t="s">
+      <c r="B27" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
       <c r="E27" s="63" t="b">
         <v>1</v>
       </c>
@@ -4578,13 +4588,13 @@
       </c>
       <c r="G27" s="132"/>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="261"/>
-      <c r="B28" s="242" t="s">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="249"/>
+      <c r="B28" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="51" t="b">
         <v>1</v>
       </c>
@@ -4593,47 +4603,47 @@
       </c>
       <c r="G28" s="133"/>
     </row>
-    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="260" t="s">
+    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="247" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="237" t="s">
+      <c r="B29" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="238"/>
-      <c r="D29" s="239"/>
+      <c r="C29" s="259"/>
+      <c r="D29" s="260"/>
       <c r="E29" s="63" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="G29" s="265" t="s">
+      <c r="G29" s="231" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="240"/>
-      <c r="B30" s="262" t="s">
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="248"/>
+      <c r="B30" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="263"/>
-      <c r="D30" s="264"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="252"/>
       <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="266"/>
-    </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="261"/>
-      <c r="B31" s="254" t="s">
+      <c r="G30" s="232"/>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="249"/>
+      <c r="B31" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="255"/>
-      <c r="D31" s="256"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="235"/>
       <c r="E31" s="57" t="s">
         <v>270</v>
       </c>
@@ -4644,15 +4654,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="260" t="s">
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="241" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
@@ -4661,13 +4671,13 @@
       </c>
       <c r="G32" s="132"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="240"/>
-      <c r="B33" s="251" t="s">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="248"/>
+      <c r="B33" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="252"/>
-      <c r="D33" s="253"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="240"/>
       <c r="E33" s="27" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
@@ -4675,13 +4685,13 @@
       <c r="F33" s="67"/>
       <c r="G33" s="144"/>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="261"/>
-      <c r="B34" s="254" t="s">
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="249"/>
+      <c r="B34" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="51" t="s">
         <v>185</v>
       </c>
@@ -4690,15 +4700,16 @@
       </c>
       <c r="G34" s="133"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -4707,13 +4718,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4733,18 +4743,18 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="68" style="29" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="70.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4764,8 +4774,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="271" t="s">
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="270" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -4777,13 +4787,13 @@
       <c r="D2" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="202" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="204"/>
-    </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="272"/>
+      <c r="F2" s="203"/>
+    </row>
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="271"/>
       <c r="B3" s="84" t="s">
         <v>93</v>
       </c>
@@ -4794,11 +4804,11 @@
         <f>enumerated_chemical_space!E33</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
-      <c r="E3" s="203"/>
-      <c r="F3" s="205"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="273"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
+    </row>
+    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="272"/>
       <c r="B4" s="95" t="s">
         <v>94</v>
       </c>
@@ -4808,13 +4818,13 @@
       <c r="D4" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="207"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="274" t="s">
+      <c r="F4" s="206"/>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="273" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="113" t="s">
@@ -4829,10 +4839,10 @@
       <c r="E5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="209"/>
-    </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="275"/>
+      <c r="F5" s="208"/>
+    </row>
+    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="274"/>
       <c r="B6" s="113" t="s">
         <v>96</v>
       </c>
@@ -4845,10 +4855,10 @@
       <c r="E6" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="210"/>
-    </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="275"/>
+      <c r="F6" s="209"/>
+    </row>
+    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="274"/>
       <c r="B7" s="113" t="s">
         <v>97</v>
       </c>
@@ -4861,12 +4871,12 @@
       <c r="E7" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="210" t="s">
+      <c r="F7" s="209" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
+    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="274"/>
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
@@ -4879,12 +4889,12 @@
       <c r="E8" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="269" t="s">
+      <c r="F8" s="268" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="275"/>
+    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="274"/>
       <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
@@ -4897,10 +4907,10 @@
       <c r="E9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="270"/>
-    </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="276"/>
+      <c r="F9" s="269"/>
+    </row>
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="275"/>
       <c r="B10" s="117" t="s">
         <v>247</v>
       </c>
@@ -4910,14 +4920,14 @@
       <c r="D10" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="208" t="s">
+      <c r="E10" s="207" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="211" t="s">
+      <c r="F10" s="210" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F8:F9"/>
@@ -4942,20 +4952,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>135</v>
       </c>
@@ -4975,8 +4985,8 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="276" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
@@ -4995,8 +5005,8 @@
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="278"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="277"/>
       <c r="B3" s="46" t="s">
         <v>115</v>
       </c>
@@ -5014,8 +5024,8 @@
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="279"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="278"/>
       <c r="B4" s="146" t="s">
         <v>116</v>
       </c>
@@ -5032,8 +5042,8 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="280"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="279"/>
       <c r="B5" s="123" t="s">
         <v>117</v>
       </c>
@@ -5050,8 +5060,8 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="221" t="s">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="220" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
@@ -5071,8 +5081,8 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="222"/>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="221"/>
       <c r="B7" s="82" t="s">
         <v>118</v>
       </c>
@@ -5089,8 +5099,8 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="223"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="222"/>
       <c r="B8" s="137" t="s">
         <v>119</v>
       </c>
@@ -5108,8 +5118,8 @@
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="281"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="280"/>
       <c r="B9" s="93" t="s">
         <v>120</v>
       </c>
@@ -5127,8 +5137,8 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="282" t="s">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="281" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
@@ -5148,8 +5158,8 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="283"/>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="282"/>
       <c r="B11" s="91" t="s">
         <v>122</v>
       </c>
@@ -5166,8 +5176,8 @@
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="283"/>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="282"/>
       <c r="B12" s="6" t="s">
         <v>123</v>
       </c>
@@ -5185,8 +5195,8 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="283"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="282"/>
       <c r="B13" s="6" t="s">
         <v>124</v>
       </c>
@@ -5204,8 +5214,8 @@
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="283"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="282"/>
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
@@ -5223,8 +5233,8 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="283"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="282"/>
       <c r="B15" s="6" t="s">
         <v>126</v>
       </c>
@@ -5242,8 +5252,8 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="284"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="283"/>
       <c r="B16" s="126" t="s">
         <v>127</v>
       </c>
@@ -5261,28 +5271,28 @@
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="287" t="s">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="286" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="177" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="178" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="288"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="287"/>
       <c r="B18" s="155" t="s">
         <v>129</v>
       </c>
@@ -5297,83 +5307,83 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="285" t="s">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="284" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="182">
+      <c r="D19" s="181">
         <f>D10</f>
         <v>1</v>
       </c>
-      <c r="E19" s="183" t="s">
+      <c r="E19" s="182" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="285"/>
-      <c r="B20" s="184" t="s">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="284"/>
+      <c r="B20" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="185" t="s">
+      <c r="C20" s="184" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="186" t="s">
+      <c r="D20" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="185" t="s">
+      <c r="E20" s="184" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="285"/>
-      <c r="B21" s="184" t="s">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="284"/>
+      <c r="B21" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="185" t="s">
+      <c r="C21" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="186" t="s">
+      <c r="D21" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="185" t="s">
+      <c r="E21" s="184" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="285"/>
-      <c r="B22" s="184" t="s">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="284"/>
+      <c r="B22" s="183" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="186">
+      <c r="D22" s="185">
         <v>50000</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="184" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="286"/>
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="285"/>
       <c r="B23" s="151" t="s">
         <v>134</v>
       </c>
@@ -5390,7 +5400,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="150"/>
       <c r="B24" s="43"/>
       <c r="C24" s="36"/>
@@ -5400,7 +5410,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150"/>
       <c r="B25" s="43"/>
       <c r="C25" s="36"/>
@@ -5410,7 +5420,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150"/>
       <c r="B26" s="43"/>
       <c r="C26" s="36"/>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="276">
   <si>
     <t>PARAM0001</t>
   </si>
@@ -1453,6 +1453,254 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or fill when "YES" is selected for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Default = 6. 95% of realistic molecular formulas have ≤ 6 elements. This rule does not count Na and K elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
+  </si>
+  <si>
+    <t>Rule 5 (Potassium and sodium rule ((na+k) &lt;= 1))</t>
+  </si>
+  <si>
+    <t>Default = TRUE or FALSE, [M+Na/K]+ ionization pathways usually occur in ESI positive mode. This rule assumes either [M+Na]+ or [M+K]+ ion occurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Essential elements"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Ex: "c &gt;= si"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use a constant value or a piece of R script using elements in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Essential elements'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">≥ 1 Fill when "TopRank" is selected for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SFT0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This file may be derived from PARAM0004 parameter in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' tab</t>
+    </r>
+  </si>
+  <si>
+    <t>/path/to/folder//MS1/IDSL.UFA</t>
+  </si>
+  <si>
+    <t>"YES" OR "NO" (When "YES", fill out PARAM0015-PARAM0027)</t>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", fill out PARAM0028-PARAM0030) (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is not required)</t>
+    </r>
+  </si>
+  <si>
+    <t>"YES" OR "NO" (When "YES", fill out parameters in the 'score_function_optimization' tab)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"All" or a vector of comma separated IDSL.IPA peak ID indices </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ONLY when one HRMS file was selected in PARAM0010</t>
+    </r>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>c(1e30, 1e-12, 100)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO". When "YES", select "YES" for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/Score-Coefficients-Optimization</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Address of a </t>
     </r>
     <r>
@@ -1487,7 +1735,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> files may have a second column for retention time values in minutes to match peaks using retention times as well. Do not use headers for the </t>
+      <t xml:space="preserve"> files may also have a second column for retention time values in minutes to match peaks using retention times. Do not use headers for the </t>
     </r>
     <r>
       <rPr>
@@ -1508,252 +1756,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or fill when "YES" is selected for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Default = 6. 95% of realistic molecular formulas have ≤ 6 elements. This rule does not count Na and K elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
-  </si>
-  <si>
-    <t>Rule 5 (Potassium and sodium rule ((na+k) &lt;= 1))</t>
-  </si>
-  <si>
-    <t>Default = TRUE or FALSE, [M+Na/K]+ ionization pathways usually occur in ESI positive mode. This rule assumes either [M+Na]+ or [M+K]+ ion occurs.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Essential elements"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Ex: "c &gt;= si"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Use a constant value or a piece of R script using elements in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Essential elements'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">≥ 1 Fill when "TopRank" is selected for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SFT0016</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This file may be derived from PARAM0004 parameter in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' tab</t>
-    </r>
-  </si>
-  <si>
-    <t>/path/to/folder//MS1/IDSL.UFA</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO" (When "YES", fill out PARAM0015-PARAM0027)</t>
-  </si>
-  <si>
-    <r>
-      <t>"YES" OR "NO" (When "YES", fill out PARAM0028-PARAM0030) (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not required)</t>
-    </r>
-  </si>
-  <si>
-    <t>"YES" OR "NO" (When "YES", fill out parameters in the 'score_function_optimization' tab)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"All" or a vector of comma separated IDSL.IPA peak ID indices </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ONLY when one HRMS file was selected in PARAM0010</t>
-    </r>
-  </si>
-  <si>
-    <t>0-100</t>
-  </si>
-  <si>
-    <t>c(1e30, 1e-12, 100)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO". When "YES", select "YES" for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.UFA/wiki/Score-Coefficients-Optimization</t>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/NEME-PCS</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3022,6 +3025,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3076,11 +3082,80 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3091,102 +3166,42 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3245,9 +3260,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3543,7 +3555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3590,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="219" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="76" t="s">
@@ -3591,14 +3603,14 @@
         <v>20</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="228" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="229" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3611,10 +3623,10 @@
       <c r="E3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="229"/>
+      <c r="F3" s="230"/>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3627,10 +3639,10 @@
       <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="229"/>
+      <c r="F4" s="230"/>
     </row>
     <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3644,10 +3656,10 @@
       <c r="E5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="230"/>
+      <c r="F5" s="231"/>
     </row>
     <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3658,12 +3670,12 @@
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="162"/>
     </row>
     <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3674,12 +3686,12 @@
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" s="162"/>
     </row>
     <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="194" t="s">
         <v>7</v>
       </c>
@@ -3690,12 +3702,12 @@
         <v>20</v>
       </c>
       <c r="E8" s="197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F8" s="198"/>
     </row>
     <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="219"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="86" t="s">
         <v>204</v>
       </c>
@@ -3708,12 +3720,12 @@
       <c r="E9" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="288" t="s">
-        <v>273</v>
+      <c r="F9" s="213" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="82" t="s">
@@ -3729,7 +3741,7 @@
       <c r="F10" s="163"/>
     </row>
     <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
+      <c r="A11" s="222"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3745,12 +3757,12 @@
       <c r="F11" s="164"/>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
+      <c r="A12" s="222"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>160</v>
@@ -3761,7 +3773,7 @@
       <c r="F12" s="164"/>
     </row>
     <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
+      <c r="A13" s="223"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3772,12 +3784,12 @@
         <v>250</v>
       </c>
       <c r="E13" s="190" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F13" s="164"/>
     </row>
     <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3788,12 +3800,12 @@
         <v>67</v>
       </c>
       <c r="E14" s="174" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F14" s="164"/>
     </row>
     <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="222"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
@@ -3801,7 +3813,7 @@
         <v>191</v>
       </c>
       <c r="D15" s="200" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="201" t="s">
         <v>80</v>
@@ -3809,7 +3821,7 @@
       <c r="F15" s="165"/>
     </row>
     <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="214" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
@@ -3825,11 +3837,11 @@
         <v>189</v>
       </c>
       <c r="F16" s="212" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
@@ -3845,7 +3857,7 @@
       <c r="F17" s="161"/>
     </row>
     <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="214"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
@@ -3861,7 +3873,7 @@
       <c r="F18" s="187"/>
     </row>
     <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
@@ -3874,10 +3886,12 @@
       <c r="E19" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F19" s="161"/>
+      <c r="F19" s="232" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
@@ -3890,10 +3904,10 @@
       <c r="E20" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F20" s="161"/>
+      <c r="F20" s="233"/>
     </row>
     <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
+      <c r="A21" s="216"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -3906,10 +3920,10 @@
       <c r="E21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="161"/>
+      <c r="F21" s="234"/>
     </row>
     <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
@@ -3922,12 +3936,12 @@
       <c r="E22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="226" t="s">
+      <c r="F22" s="227" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
@@ -3938,12 +3952,12 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F23" s="227"/>
+        <v>268</v>
+      </c>
+      <c r="F23" s="228"/>
     </row>
     <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
@@ -3957,11 +3971,11 @@
         <v>89</v>
       </c>
       <c r="F24" s="211" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="216"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
@@ -3977,7 +3991,7 @@
       <c r="F25" s="166"/>
     </row>
     <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
@@ -3995,7 +4009,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="216"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="104" t="s">
         <v>103</v>
       </c>
@@ -4013,7 +4027,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="217"/>
+      <c r="A28" s="218"/>
       <c r="B28" s="105" t="s">
         <v>113</v>
       </c>
@@ -4031,7 +4045,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="223" t="s">
+      <c r="A29" s="224" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
@@ -4049,7 +4063,7 @@
       <c r="F29" s="170"/>
     </row>
     <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="224"/>
+      <c r="A30" s="225"/>
       <c r="B30" s="72" t="s">
         <v>152</v>
       </c>
@@ -4064,8 +4078,8 @@
       </c>
       <c r="F30" s="171"/>
     </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="225"/>
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="226"/>
       <c r="B31" s="109" t="s">
         <v>194</v>
       </c>
@@ -4082,13 +4096,14 @@
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A16:A28"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F22" r:id="rId1"/>
@@ -4097,9 +4112,10 @@
     <hyperlink ref="F16" r:id="rId4"/>
     <hyperlink ref="F24" r:id="rId5"/>
     <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4108,7 +4124,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4148,7 +4164,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="235" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="53"/>
@@ -4163,7 +4179,7 @@
       <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="254"/>
+      <c r="A3" s="236"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
       </c>
@@ -4178,7 +4194,7 @@
       <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="237" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4197,7 +4213,7 @@
       <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="256"/>
+      <c r="A5" s="238"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
@@ -4214,7 +4230,7 @@
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="256"/>
+      <c r="A6" s="238"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
@@ -4231,7 +4247,7 @@
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="256"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4248,7 +4264,7 @@
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="256"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="130" t="s">
         <v>175</v>
       </c>
@@ -4268,7 +4284,7 @@
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="256"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -4285,7 +4301,7 @@
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="256"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -4302,7 +4318,7 @@
       <c r="G10" s="144"/>
     </row>
     <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="256"/>
+      <c r="A11" s="238"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
@@ -4319,7 +4335,7 @@
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="257"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
@@ -4336,7 +4352,7 @@
       <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="248" t="s">
+      <c r="A13" s="243" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -4355,7 +4371,7 @@
       <c r="G13" s="132"/>
     </row>
     <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="248"/>
+      <c r="A14" s="243"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
@@ -4373,7 +4389,7 @@
       <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="248"/>
+      <c r="A15" s="243"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4390,7 +4406,7 @@
       <c r="G15" s="144"/>
     </row>
     <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="248"/>
+      <c r="A16" s="243"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
@@ -4407,7 +4423,7 @@
       <c r="G16" s="144"/>
     </row>
     <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="248"/>
+      <c r="A17" s="243"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
@@ -4424,7 +4440,7 @@
       <c r="G17" s="144"/>
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="248"/>
+      <c r="A18" s="243"/>
       <c r="B18" s="24" t="s">
         <v>176</v>
       </c>
@@ -4444,7 +4460,7 @@
       <c r="G18" s="144"/>
     </row>
     <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="248"/>
+      <c r="A19" s="243"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
       </c>
@@ -4461,7 +4477,7 @@
       <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="248"/>
+      <c r="A20" s="243"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
@@ -4478,7 +4494,7 @@
       <c r="G20" s="144"/>
     </row>
     <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="248"/>
+      <c r="A21" s="243"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
       </c>
@@ -4495,14 +4511,14 @@
       <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="248" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="261" t="s">
+      <c r="B22" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="261"/>
-      <c r="D22" s="261"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="244"/>
       <c r="E22" s="63" t="b">
         <v>1</v>
       </c>
@@ -4512,12 +4528,12 @@
       <c r="G22" s="132"/>
     </row>
     <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="266"/>
-      <c r="B23" s="236" t="s">
+      <c r="A23" s="249"/>
+      <c r="B23" s="270" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4527,12 +4543,12 @@
       <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="266"/>
-      <c r="B24" s="236" t="s">
+      <c r="A24" s="249"/>
+      <c r="B24" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
+      <c r="C24" s="270"/>
+      <c r="D24" s="270"/>
       <c r="E24" s="26" t="s">
         <v>147</v>
       </c>
@@ -4542,59 +4558,59 @@
       <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="266"/>
-      <c r="B25" s="238" t="s">
+      <c r="A25" s="249"/>
+      <c r="B25" s="254" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="D25" s="240"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="256"/>
       <c r="E25" s="191">
         <v>6</v>
       </c>
       <c r="F25" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="193"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="250"/>
+      <c r="B26" s="271" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="193"/>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="267"/>
-      <c r="B26" s="237" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="271"/>
       <c r="E26" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="247" t="s">
+      <c r="A27" s="263" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="244" t="s">
+      <c r="B27" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="246"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="262"/>
       <c r="E27" s="63" t="b">
         <v>1</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" s="132"/>
     </row>
     <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="249"/>
-      <c r="B28" s="262" t="s">
+      <c r="A28" s="264"/>
+      <c r="B28" s="245" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="263"/>
-      <c r="D28" s="264"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="247"/>
       <c r="E28" s="51" t="b">
         <v>1</v>
       </c>
@@ -4604,48 +4620,48 @@
       <c r="G28" s="133"/>
     </row>
     <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="247" t="s">
+      <c r="A29" s="263" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="258" t="s">
+      <c r="B29" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="259"/>
-      <c r="D29" s="260"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="63" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="G29" s="231" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="268" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="248"/>
-      <c r="B30" s="250" t="s">
+      <c r="A30" s="243"/>
+      <c r="B30" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="251"/>
-      <c r="D30" s="252"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="267"/>
       <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="232"/>
+      <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
-      <c r="B31" s="233" t="s">
+      <c r="A31" s="264"/>
+      <c r="B31" s="257" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="235"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
       <c r="E31" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" s="131" t="s">
         <v>169</v>
@@ -4655,14 +4671,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247" t="s">
+      <c r="A32" s="263" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="241" t="s">
+      <c r="B32" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="253"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
@@ -4672,12 +4688,12 @@
       <c r="G32" s="132"/>
     </row>
     <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="248"/>
-      <c r="B33" s="238" t="s">
+      <c r="A33" s="243"/>
+      <c r="B33" s="254" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="239"/>
-      <c r="D33" s="240"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="256"/>
       <c r="E33" s="27" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
@@ -4686,12 +4702,12 @@
       <c r="G33" s="144"/>
     </row>
     <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="249"/>
-      <c r="B34" s="233" t="s">
+      <c r="A34" s="264"/>
+      <c r="B34" s="257" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="235"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
       <c r="E34" s="51" t="s">
         <v>185</v>
       </c>
@@ -4703,13 +4719,12 @@
     <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -4718,12 +4733,13 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4775,7 +4791,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="274" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -4788,12 +4804,12 @@
         <v>164</v>
       </c>
       <c r="E2" s="202" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F2" s="203"/>
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="271"/>
+      <c r="A3" s="275"/>
       <c r="B3" s="84" t="s">
         <v>93</v>
       </c>
@@ -4808,7 +4824,7 @@
       <c r="F3" s="204"/>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272"/>
+      <c r="A4" s="276"/>
       <c r="B4" s="95" t="s">
         <v>94</v>
       </c>
@@ -4824,7 +4840,7 @@
       <c r="F4" s="206"/>
     </row>
     <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="273" t="s">
+      <c r="A5" s="277" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="113" t="s">
@@ -4842,7 +4858,7 @@
       <c r="F5" s="208"/>
     </row>
     <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="274"/>
+      <c r="A6" s="278"/>
       <c r="B6" s="113" t="s">
         <v>96</v>
       </c>
@@ -4858,7 +4874,7 @@
       <c r="F6" s="209"/>
     </row>
     <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
+      <c r="A7" s="278"/>
       <c r="B7" s="113" t="s">
         <v>97</v>
       </c>
@@ -4876,7 +4892,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
+      <c r="A8" s="278"/>
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
@@ -4889,12 +4905,12 @@
       <c r="E8" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="268" t="s">
+      <c r="F8" s="272" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="274"/>
+      <c r="A9" s="278"/>
       <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
@@ -4907,10 +4923,10 @@
       <c r="E9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="269"/>
+      <c r="F9" s="273"/>
     </row>
     <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275"/>
+      <c r="A10" s="279"/>
       <c r="B10" s="117" t="s">
         <v>247</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>159</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="207" t="s">
         <v>169</v>
@@ -4986,7 +5002,7 @@
       <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="280" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
@@ -5006,7 +5022,7 @@
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="277"/>
+      <c r="A3" s="281"/>
       <c r="B3" s="46" t="s">
         <v>115</v>
       </c>
@@ -5018,14 +5034,14 @@
         <v>/path/to/folder//MS1/IDSL.UFA/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="278"/>
+      <c r="A4" s="282"/>
       <c r="B4" s="146" t="s">
         <v>116</v>
       </c>
@@ -5043,7 +5059,7 @@
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="279"/>
+      <c r="A5" s="283"/>
       <c r="B5" s="123" t="s">
         <v>117</v>
       </c>
@@ -5061,7 +5077,7 @@
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
@@ -5082,7 +5098,7 @@
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
+      <c r="A7" s="222"/>
       <c r="B7" s="82" t="s">
         <v>118</v>
       </c>
@@ -5100,7 +5116,7 @@
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
+      <c r="A8" s="223"/>
       <c r="B8" s="137" t="s">
         <v>119</v>
       </c>
@@ -5119,7 +5135,7 @@
       <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="280"/>
+      <c r="A9" s="284"/>
       <c r="B9" s="93" t="s">
         <v>120</v>
       </c>
@@ -5138,7 +5154,7 @@
       <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="281" t="s">
+      <c r="A10" s="285" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
@@ -5159,7 +5175,7 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="282"/>
+      <c r="A11" s="286"/>
       <c r="B11" s="91" t="s">
         <v>122</v>
       </c>
@@ -5177,7 +5193,7 @@
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
+      <c r="A12" s="286"/>
       <c r="B12" s="6" t="s">
         <v>123</v>
       </c>
@@ -5196,7 +5212,7 @@
       <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
+      <c r="A13" s="286"/>
       <c r="B13" s="6" t="s">
         <v>124</v>
       </c>
@@ -5215,7 +5231,7 @@
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="282"/>
+      <c r="A14" s="286"/>
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
@@ -5234,7 +5250,7 @@
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="282"/>
+      <c r="A15" s="286"/>
       <c r="B15" s="6" t="s">
         <v>126</v>
       </c>
@@ -5253,7 +5269,7 @@
       <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="283"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="126" t="s">
         <v>127</v>
       </c>
@@ -5265,14 +5281,14 @@
         <v>5</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="286" t="s">
+      <c r="A17" s="290" t="s">
         <v>243</v>
       </c>
       <c r="B17" s="175" t="s">
@@ -5292,7 +5308,7 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="287"/>
+      <c r="A18" s="291"/>
       <c r="B18" s="155" t="s">
         <v>129</v>
       </c>
@@ -5301,14 +5317,14 @@
       </c>
       <c r="D18" s="157"/>
       <c r="E18" s="158" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="284" t="s">
+      <c r="A19" s="288" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="179" t="s">
@@ -5329,7 +5345,7 @@
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="284"/>
+      <c r="A20" s="288"/>
       <c r="B20" s="183" t="s">
         <v>131</v>
       </c>
@@ -5347,7 +5363,7 @@
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="284"/>
+      <c r="A21" s="288"/>
       <c r="B21" s="183" t="s">
         <v>132</v>
       </c>
@@ -5365,7 +5381,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="284"/>
+      <c r="A22" s="288"/>
       <c r="B22" s="183" t="s">
         <v>133</v>
       </c>
@@ -5383,7 +5399,7 @@
       <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="285"/>
+      <c r="A23" s="289"/>
       <c r="B23" s="151" t="s">
         <v>134</v>
       </c>

--- a/UFA_parameters.xlsx
+++ b/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -3091,6 +3091,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3115,9 +3181,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3138,69 +3201,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3553,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4123,7 +4123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4164,7 +4164,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="257" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="53"/>
@@ -4179,7 +4179,7 @@
       <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="236"/>
+      <c r="A3" s="258"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="259" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4213,7 +4213,7 @@
       <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="238"/>
+      <c r="A5" s="260"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="238"/>
+      <c r="A6" s="260"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="238"/>
+      <c r="A7" s="260"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="238"/>
+      <c r="A8" s="260"/>
       <c r="B8" s="130" t="s">
         <v>175</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238"/>
+      <c r="A9" s="260"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="238"/>
+      <c r="A10" s="260"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="G10" s="144"/>
     </row>
     <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="238"/>
+      <c r="A11" s="260"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="239"/>
+      <c r="A12" s="261"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="252" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -4371,7 +4371,7 @@
       <c r="G13" s="132"/>
     </row>
     <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="243"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="243"/>
+      <c r="A15" s="252"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="G15" s="144"/>
     </row>
     <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="243"/>
+      <c r="A16" s="252"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="G16" s="144"/>
     </row>
     <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="243"/>
+      <c r="A17" s="252"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="G17" s="144"/>
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="243"/>
+      <c r="A18" s="252"/>
       <c r="B18" s="24" t="s">
         <v>176</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="G18" s="144"/>
     </row>
     <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="243"/>
+      <c r="A19" s="252"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="243"/>
+      <c r="A20" s="252"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="G20" s="144"/>
     </row>
     <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="243"/>
+      <c r="A21" s="252"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
       </c>
@@ -4511,14 +4511,14 @@
       <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="248" t="s">
+      <c r="A22" s="269" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="244" t="s">
+      <c r="B22" s="265" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="244"/>
-      <c r="D22" s="244"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="265"/>
       <c r="E22" s="63" t="b">
         <v>1</v>
       </c>
@@ -4528,12 +4528,12 @@
       <c r="G22" s="132"/>
     </row>
     <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="249"/>
-      <c r="B23" s="270" t="s">
+      <c r="A23" s="270"/>
+      <c r="B23" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="270"/>
-      <c r="D23" s="270"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
@@ -4543,12 +4543,12 @@
       <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="249"/>
-      <c r="B24" s="270" t="s">
+      <c r="A24" s="270"/>
+      <c r="B24" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="270"/>
-      <c r="D24" s="270"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="26" t="s">
         <v>147</v>
       </c>
@@ -4558,12 +4558,12 @@
       <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="249"/>
-      <c r="B25" s="254" t="s">
+      <c r="A25" s="270"/>
+      <c r="B25" s="242" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="255"/>
-      <c r="D25" s="256"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="244"/>
       <c r="E25" s="191">
         <v>6</v>
       </c>
@@ -4573,12 +4573,12 @@
       <c r="G25" s="193"/>
     </row>
     <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="250"/>
-      <c r="B26" s="271" t="s">
+      <c r="A26" s="271"/>
+      <c r="B26" s="241" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="271"/>
-      <c r="D26" s="271"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
       <c r="E26" s="51" t="b">
         <v>1</v>
       </c>
@@ -4588,14 +4588,14 @@
       <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="263" t="s">
+      <c r="A27" s="251" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="260" t="s">
+      <c r="B27" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="261"/>
-      <c r="D27" s="262"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="63" t="b">
         <v>1</v>
       </c>
@@ -4605,12 +4605,12 @@
       <c r="G27" s="132"/>
     </row>
     <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="264"/>
-      <c r="B28" s="245" t="s">
+      <c r="A28" s="253"/>
+      <c r="B28" s="266" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="247"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="268"/>
       <c r="E28" s="51" t="b">
         <v>1</v>
       </c>
@@ -4620,46 +4620,46 @@
       <c r="G28" s="133"/>
     </row>
     <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="263" t="s">
+      <c r="A29" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="240" t="s">
+      <c r="B29" s="262" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="241"/>
-      <c r="D29" s="242"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="63" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="G29" s="268" t="s">
+      <c r="G29" s="235" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="243"/>
-      <c r="B30" s="265" t="s">
+      <c r="A30" s="252"/>
+      <c r="B30" s="254" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="266"/>
-      <c r="D30" s="267"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="256"/>
       <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="269"/>
+      <c r="G30" s="236"/>
     </row>
     <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="264"/>
-      <c r="B31" s="257" t="s">
+      <c r="A31" s="253"/>
+      <c r="B31" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="258"/>
-      <c r="D31" s="259"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="239"/>
       <c r="E31" s="57" t="s">
         <v>269</v>
       </c>
@@ -4671,14 +4671,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="263" t="s">
+      <c r="A32" s="251" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="251" t="s">
+      <c r="B32" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="252"/>
-      <c r="D32" s="253"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
@@ -4688,12 +4688,12 @@
       <c r="G32" s="132"/>
     </row>
     <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="243"/>
-      <c r="B33" s="254" t="s">
+      <c r="A33" s="252"/>
+      <c r="B33" s="242" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="255"/>
-      <c r="D33" s="256"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="244"/>
       <c r="E33" s="27" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
@@ -4702,12 +4702,12 @@
       <c r="G33" s="144"/>
     </row>
     <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="264"/>
-      <c r="B34" s="257" t="s">
+      <c r="A34" s="253"/>
+      <c r="B34" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="239"/>
       <c r="E34" s="51" t="s">
         <v>185</v>
       </c>
@@ -4719,12 +4719,13 @@
     <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -4733,13 +4734,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
